--- a/1DETRENDING CLIMATE.xlsx
+++ b/1DETRENDING CLIMATE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HONOR\YandexDisk\DENDRO\ДИСЕР\climate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Кристина\Desktop\git\climate_response\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFF3714B-858F-470D-89F7-8E617357E524}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10092" xr2:uid="{2F3CE408-561D-4014-992E-C46FC39872FB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616"/>
   </bookViews>
   <sheets>
     <sheet name="Temp" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Prec!$B$1:$M$72</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -160,7 +159,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -558,11 +557,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE787B11-E49E-4378-82A4-E44FB31CC38A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -667,7 +666,7 @@
         <v>1951</v>
       </c>
       <c r="B2">
-        <v>-24.3</v>
+        <v>-30.3</v>
       </c>
       <c r="C2">
         <v>-19.399999999999999</v>
@@ -754,7 +753,7 @@
       </c>
       <c r="AG2">
         <f>SLOPE(B2:B72,$A$2:$A$72)</f>
-        <v>4.8900067069081149E-2</v>
+        <v>5.5942320590207914E-2</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
@@ -7289,7 +7288,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7DBF964-0FC0-4A49-B097-D42D8B398589}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH72"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
@@ -7638,7 +7637,7 @@
         <v>-0.50207914151576116</v>
       </c>
       <c r="P4">
-        <f t="shared" ref="P3:P66" si="2">N4-O4</f>
+        <f t="shared" ref="P4:P66" si="2">N4-O4</f>
         <v>139.50207914151576</v>
       </c>
       <c r="R4" s="6">

--- a/1DETRENDING CLIMATE.xlsx
+++ b/1DETRENDING CLIMATE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Кристина\Desktop\git\climate_response\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kristina\Desktop\My_work\climate_response\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB7E039-AFC9-46B3-B166-8CD8A9EE8CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616"/>
+    <workbookView xWindow="8700" yWindow="90" windowWidth="19770" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Temp" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Prec!$B$1:$M$72</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -159,7 +160,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -557,16 +558,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AH57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -658,65 +659,65 @@
         <v>24</v>
       </c>
       <c r="AH1" s="5">
-        <v>1.7004247708473062E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+        <v>6.6127819548872188E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1951</v>
+        <v>1966</v>
       </c>
       <c r="B2">
-        <v>-30.3</v>
+        <v>-39.4</v>
       </c>
       <c r="C2">
-        <v>-19.399999999999999</v>
+        <v>-39.6</v>
       </c>
       <c r="D2">
-        <v>-7.7</v>
+        <v>-31.5</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>-21.3</v>
       </c>
       <c r="F2">
-        <v>12.8</v>
+        <v>-4.5</v>
       </c>
       <c r="G2">
-        <v>15.9</v>
+        <v>6.9</v>
       </c>
       <c r="H2">
-        <v>18.100000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="I2">
-        <v>11.8</v>
+        <v>6.8</v>
       </c>
       <c r="J2">
-        <v>9.9</v>
+        <v>0.3</v>
       </c>
       <c r="K2">
-        <v>1.1000000000000001</v>
+        <v>-14</v>
       </c>
       <c r="L2">
-        <v>-10.9</v>
+        <v>-22.5</v>
       </c>
       <c r="M2">
-        <v>-12.7</v>
+        <v>-28.9</v>
       </c>
       <c r="N2">
-        <f>AVERAGE(F2:H2)</f>
-        <v>15.600000000000001</v>
+        <f>AVERAGE(D2)</f>
+        <v>-31.5</v>
       </c>
       <c r="P2">
         <f>N2-O2</f>
-        <v>15.600000000000001</v>
+        <v>-31.5</v>
       </c>
       <c r="R2" s="6">
-        <v>-24.3</v>
+        <v>-39.4</v>
       </c>
       <c r="S2" s="6">
-        <v>-19.399999999999999</v>
+        <v>-39.6</v>
       </c>
       <c r="T2" s="6">
-        <v>-7.7</v>
+        <v>-31.5</v>
       </c>
       <c r="U2" s="6">
         <v>4</v>
@@ -752,70 +753,70 @@
         <v>13</v>
       </c>
       <c r="AG2">
-        <f>SLOPE(B2:B72,$A$2:$A$72)</f>
-        <v>5.5942320590207914E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+        <f>SLOPE(B2:B57,$A$2:$A$57)</f>
+        <v>4.3188653451811353E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1952</v>
+        <v>1967</v>
       </c>
       <c r="B3">
-        <v>-21.2</v>
+        <v>-41.7</v>
       </c>
       <c r="C3">
-        <v>-23.3</v>
+        <v>-36.799999999999997</v>
       </c>
       <c r="D3">
-        <v>-8.8000000000000007</v>
+        <v>-28.6</v>
       </c>
       <c r="E3">
-        <v>2.1</v>
+        <v>-20</v>
       </c>
       <c r="F3">
-        <v>10.3</v>
+        <v>-3.6</v>
       </c>
       <c r="G3">
-        <v>14.3</v>
+        <v>6.2</v>
       </c>
       <c r="H3">
-        <v>16.100000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="I3">
-        <v>14.1</v>
+        <v>5.3</v>
       </c>
       <c r="J3">
-        <v>9.5</v>
+        <v>1.5</v>
       </c>
       <c r="K3">
-        <v>0.4</v>
+        <v>-9.4</v>
       </c>
       <c r="L3">
-        <v>-14.1</v>
+        <v>-25</v>
       </c>
       <c r="M3">
-        <v>-17.399999999999999</v>
+        <v>-35.299999999999997</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N66" si="0">AVERAGE(F3:H3)</f>
-        <v>13.566666666666668</v>
+        <f t="shared" ref="N3:N57" si="0">AVERAGE(D3)</f>
+        <v>-28.6</v>
       </c>
       <c r="O3">
         <f>$AH$1*(A3-$A$2)</f>
-        <v>1.7004247708473062E-2</v>
+        <v>6.6127819548872188E-2</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P66" si="1">N3-O3</f>
-        <v>13.549662418958196</v>
+        <f>N3-O3</f>
+        <v>-28.666127819548873</v>
       </c>
       <c r="R3" s="6">
-        <v>-21.24890006706908</v>
+        <v>-41.743188653451817</v>
       </c>
       <c r="S3" s="6">
-        <v>-23.357240107310531</v>
+        <v>-36.845727956254272</v>
       </c>
       <c r="T3" s="6">
-        <v>-8.8653252850435962</v>
+        <v>-28.666127819548873</v>
       </c>
       <c r="U3" s="6">
         <v>2.0558786049631119</v>
@@ -851,70 +852,70 @@
         <v>14</v>
       </c>
       <c r="AG3">
-        <f>SLOPE(C2:C72,$A$2:$A$72)</f>
-        <v>5.7240107310529843E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+        <f>SLOPE(C2:C57,$A$2:$A$57)</f>
+        <v>4.5727956254272055E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1953</v>
+        <v>1968</v>
       </c>
       <c r="B4">
-        <v>-20.9</v>
+        <v>-32.4</v>
       </c>
       <c r="C4">
-        <v>-18.8</v>
+        <v>-29</v>
       </c>
       <c r="D4">
-        <v>-4.9000000000000004</v>
+        <v>-25.6</v>
       </c>
       <c r="E4">
-        <v>3.7</v>
+        <v>-17.399999999999999</v>
       </c>
       <c r="F4">
-        <v>12.1</v>
+        <v>-5.4</v>
       </c>
       <c r="G4">
-        <v>15.9</v>
+        <v>7.3</v>
       </c>
       <c r="H4">
-        <v>18.3</v>
+        <v>9.9</v>
       </c>
       <c r="I4">
-        <v>13.9</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="J4">
-        <v>11.6</v>
+        <v>1.9</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>-13</v>
       </c>
       <c r="L4">
-        <v>-10.5</v>
+        <v>-28.8</v>
       </c>
       <c r="M4">
-        <v>-15.6</v>
+        <v>-36.6</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>15.433333333333332</v>
+        <v>-25.6</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O4:O67" si="2">$AH$1*(A4-$A$2)</f>
-        <v>3.4008495416946123E-2</v>
+        <f t="shared" ref="O4:O57" si="1">$AH$1*(A4-$A$2)</f>
+        <v>0.13225563909774438</v>
       </c>
       <c r="P4">
-        <f t="shared" si="1"/>
-        <v>15.399324837916385</v>
+        <f t="shared" ref="P4:P57" si="2">N4-O4</f>
+        <v>-25.732255639097747</v>
       </c>
       <c r="R4" s="6">
-        <v>-20.99780013413816</v>
+        <v>-32.48637730690362</v>
       </c>
       <c r="S4" s="6">
-        <v>-18.914480214621062</v>
+        <v>-29.091455912508543</v>
       </c>
       <c r="T4" s="6">
-        <v>-5.0306505700871904</v>
+        <v>-25.732255639097747</v>
       </c>
       <c r="U4" s="6">
         <v>3.6117572099262243</v>
@@ -950,70 +951,70 @@
         <v>15</v>
       </c>
       <c r="AG4">
-        <f>SLOPE(D2:D72,$A$2:$A$72)</f>
-        <v>6.5325285043594916E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+        <f>SLOPE(D2:D57,$A$2:$A$57)</f>
+        <v>6.6127819548872188E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1954</v>
+        <v>1969</v>
       </c>
       <c r="B5">
-        <v>-22.9</v>
+        <v>-30</v>
       </c>
       <c r="C5">
-        <v>-18.5</v>
+        <v>-36.5</v>
       </c>
       <c r="D5">
-        <v>-9.3000000000000007</v>
+        <v>-32.5</v>
       </c>
       <c r="E5">
-        <v>2.4</v>
+        <v>-19.100000000000001</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>-5</v>
       </c>
       <c r="G5">
-        <v>15.7</v>
+        <v>9.5</v>
       </c>
       <c r="H5">
-        <v>15.1</v>
+        <v>11</v>
       </c>
       <c r="I5">
-        <v>15.6</v>
+        <v>8.9</v>
       </c>
       <c r="J5">
-        <v>9.1</v>
+        <v>0.9</v>
       </c>
       <c r="K5">
-        <v>1.2</v>
+        <v>-14.3</v>
       </c>
       <c r="L5">
-        <v>-10.7</v>
+        <v>-30.1</v>
       </c>
       <c r="M5">
-        <v>-30.1</v>
+        <v>-30.7</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
-        <v>12.266666666666666</v>
+        <v>-32.5</v>
       </c>
       <c r="O5">
-        <f t="shared" si="2"/>
-        <v>5.1012743125419188E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.19838345864661655</v>
       </c>
       <c r="P5">
         <f>N5-O5</f>
-        <v>12.215653923541247</v>
+        <v>-32.698383458646617</v>
       </c>
       <c r="R5" s="6">
-        <v>-23.046700201207241</v>
+        <v>-30.129565960355436</v>
       </c>
       <c r="S5" s="6">
-        <v>-18.671720321931591</v>
+        <v>-36.637183868762818</v>
       </c>
       <c r="T5" s="6">
-        <v>-9.4959758551307853</v>
+        <v>-32.698383458646617</v>
       </c>
       <c r="U5" s="6">
         <v>2.2676358148893359</v>
@@ -1049,70 +1050,70 @@
         <v>16</v>
       </c>
       <c r="AG5">
-        <f>SLOPE(E2:E72,$A$2:$A$72)</f>
-        <v>4.4121395036887986E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+        <f>SLOPE(E2:E57,$A$2:$A$57)</f>
+        <v>9.4131920710868094E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1955</v>
+        <v>1970</v>
       </c>
       <c r="B6">
-        <v>-23.7</v>
+        <v>-30.2</v>
       </c>
       <c r="C6">
-        <v>-15.5</v>
+        <v>-33.200000000000003</v>
       </c>
       <c r="D6">
-        <v>-7.8</v>
+        <v>-30.3</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>-20.9</v>
       </c>
       <c r="F6">
-        <v>11.3</v>
+        <v>-5.3</v>
       </c>
       <c r="G6">
-        <v>16.600000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="H6">
-        <v>16.399999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="I6">
-        <v>15.1</v>
+        <v>5.8</v>
       </c>
       <c r="J6">
-        <v>8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="K6">
-        <v>0.4</v>
+        <v>-13.1</v>
       </c>
       <c r="L6">
-        <v>-7.4</v>
+        <v>-28.3</v>
       </c>
       <c r="M6">
-        <v>-12.9</v>
+        <v>-30.3</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
-        <v>14.766666666666666</v>
+        <v>-30.3</v>
       </c>
       <c r="O6">
-        <f t="shared" si="2"/>
-        <v>6.8016990833892246E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.26451127819548875</v>
       </c>
       <c r="P6">
         <f>N6-O6</f>
-        <v>14.698649675832774</v>
+        <v>-30.564511278195489</v>
       </c>
       <c r="R6" s="6">
-        <v>-23.895600268276326</v>
+        <v>-30.372754613807246</v>
       </c>
       <c r="S6" s="6">
-        <v>-15.72896042924212</v>
+        <v>-33.382911825017089</v>
       </c>
       <c r="T6" s="6">
-        <v>-8.061301140174379</v>
+        <v>-30.564511278195489</v>
       </c>
       <c r="U6" s="6">
         <v>1.823514419852448</v>
@@ -1148,70 +1149,70 @@
         <v>5</v>
       </c>
       <c r="AG6">
-        <f>SLOPE(F2:F72,$A$2:$A$72)</f>
-        <v>1.2139503688799465E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+        <f>SLOPE(F2:F57,$A$2:$A$57)</f>
+        <v>2.8574846206425159E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1956</v>
+        <v>1971</v>
       </c>
       <c r="B7">
-        <v>-26.5</v>
+        <v>-38.6</v>
       </c>
       <c r="C7">
-        <v>-21.4</v>
+        <v>-31.1</v>
       </c>
       <c r="D7">
-        <v>-8.6</v>
+        <v>-28.4</v>
       </c>
       <c r="E7">
-        <v>4.5999999999999996</v>
+        <v>-19</v>
       </c>
       <c r="F7">
-        <v>10.8</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="G7">
-        <v>12.6</v>
+        <v>7.1</v>
       </c>
       <c r="H7">
-        <v>16.5</v>
+        <v>11.8</v>
       </c>
       <c r="I7">
-        <v>14</v>
+        <v>10.4</v>
       </c>
       <c r="J7">
-        <v>8.6</v>
+        <v>3.7</v>
       </c>
       <c r="K7">
-        <v>3.6</v>
+        <v>-11.2</v>
       </c>
       <c r="L7">
-        <v>-14.1</v>
+        <v>-27</v>
       </c>
       <c r="M7">
-        <v>-20.7</v>
+        <v>-32.4</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>13.299999999999999</v>
+        <v>-28.4</v>
       </c>
       <c r="O7">
+        <f t="shared" si="1"/>
+        <v>0.33063909774436095</v>
+      </c>
+      <c r="P7">
         <f t="shared" si="2"/>
-        <v>8.5021238542365304E-2</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="1"/>
-        <v>13.214978761457633</v>
+        <v>-28.730639097744358</v>
       </c>
       <c r="R7" s="6">
-        <v>-26.744500335345407</v>
+        <v>-38.815943267259058</v>
       </c>
       <c r="S7" s="6">
-        <v>-21.686200536552647</v>
+        <v>-31.328639781271363</v>
       </c>
       <c r="T7" s="6">
-        <v>-8.9266264252179734</v>
+        <v>-28.730639097744358</v>
       </c>
       <c r="U7" s="6">
         <v>4.3793930248155597</v>
@@ -1247,70 +1248,70 @@
         <v>17</v>
       </c>
       <c r="AG7">
-        <f>SLOPE(G2:G72,$A$2:$A$72)</f>
-        <v>1.8276324614352774E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+        <f>SLOPE(G2:G57,$A$2:$A$57)</f>
+        <v>4.3021189336978807E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1957</v>
+        <v>1972</v>
       </c>
       <c r="B8">
-        <v>-21.4</v>
+        <v>-38.700000000000003</v>
       </c>
       <c r="C8">
-        <v>-17.399999999999999</v>
+        <v>-32.700000000000003</v>
       </c>
       <c r="D8">
-        <v>-5.2</v>
+        <v>-26.5</v>
       </c>
       <c r="E8">
-        <v>2.1</v>
+        <v>-15.8</v>
       </c>
       <c r="F8">
-        <v>8.8000000000000007</v>
+        <v>-1.8</v>
       </c>
       <c r="G8">
-        <v>16.3</v>
+        <v>2.8</v>
       </c>
       <c r="H8">
-        <v>15.2</v>
+        <v>9.6</v>
       </c>
       <c r="I8">
-        <v>13.1</v>
+        <v>6</v>
       </c>
       <c r="J8">
-        <v>9.3000000000000007</v>
+        <v>-0.4</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>-9.9</v>
       </c>
       <c r="L8">
-        <v>-7.1</v>
+        <v>-29.7</v>
       </c>
       <c r="M8">
-        <v>-13.3</v>
+        <v>-32.700000000000003</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
-        <v>13.433333333333332</v>
+        <v>-26.5</v>
       </c>
       <c r="O8">
+        <f t="shared" si="1"/>
+        <v>0.3967669172932331</v>
+      </c>
+      <c r="P8">
         <f t="shared" si="2"/>
-        <v>0.10202548625083838</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="1"/>
-        <v>13.331307847082494</v>
+        <v>-26.896766917293235</v>
       </c>
       <c r="R8" s="6">
-        <v>-21.693400402414486</v>
+        <v>-38.959131920710874</v>
       </c>
       <c r="S8" s="6">
-        <v>-17.743440643863178</v>
+        <v>-32.974367737525633</v>
       </c>
       <c r="T8" s="6">
-        <v>-5.5919517102615695</v>
+        <v>-26.896766917293235</v>
       </c>
       <c r="U8" s="6">
         <v>1.8352716297786722</v>
@@ -1346,70 +1347,70 @@
         <v>18</v>
       </c>
       <c r="AG8">
-        <f>SLOPE(H2:H72,$A$2:$A$72)</f>
-        <v>2.0596914822266929E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+        <f>SLOPE(H2:H57,$A$2:$A$57)</f>
+        <v>1.7843472317156526E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1958</v>
+        <v>1973</v>
       </c>
       <c r="B9">
-        <v>-24.4</v>
+        <v>-36.4</v>
       </c>
       <c r="C9">
-        <v>-14.7</v>
+        <v>-33.9</v>
       </c>
       <c r="D9">
-        <v>-9.4</v>
+        <v>-29.4</v>
       </c>
       <c r="E9">
-        <v>2.6</v>
+        <v>-18.600000000000001</v>
       </c>
       <c r="F9">
-        <v>9.1</v>
+        <v>-5.3</v>
       </c>
       <c r="G9">
-        <v>10.7</v>
+        <v>8.9</v>
       </c>
       <c r="H9">
-        <v>15.7</v>
+        <v>11.4</v>
       </c>
       <c r="I9">
-        <v>14.9</v>
+        <v>5.3</v>
       </c>
       <c r="J9">
-        <v>8.4</v>
+        <v>-0.4</v>
       </c>
       <c r="K9">
-        <v>1.4</v>
+        <v>-13.4</v>
       </c>
       <c r="L9">
-        <v>-8.3000000000000007</v>
+        <v>-26.5</v>
       </c>
       <c r="M9">
-        <v>-17.100000000000001</v>
+        <v>-32.700000000000003</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
-        <v>11.833333333333334</v>
+        <v>-29.4</v>
       </c>
       <c r="O9">
+        <f t="shared" si="1"/>
+        <v>0.4628947368421053</v>
+      </c>
+      <c r="P9">
         <f t="shared" si="2"/>
-        <v>0.11902973395931143</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="1"/>
-        <v>11.714303599374022</v>
+        <v>-29.862894736842104</v>
       </c>
       <c r="R9" s="6">
-        <v>-24.742300469483567</v>
+        <v>-36.702320574162677</v>
       </c>
       <c r="S9" s="6">
-        <v>-15.100680751173709</v>
+        <v>-34.220095693779903</v>
       </c>
       <c r="T9" s="6">
-        <v>-9.8572769953051651</v>
+        <v>-29.862894736842104</v>
       </c>
       <c r="U9" s="6">
         <v>2.2911502347417843</v>
@@ -1445,70 +1446,70 @@
         <v>19</v>
       </c>
       <c r="AG9">
-        <f>SLOPE(I2:I72,$A$2:$A$72)</f>
-        <v>2.6629778672032187E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+        <f>SLOPE(I2:I57,$A$2:$A$57)</f>
+        <v>3.8571428571428569E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1959</v>
+        <v>1974</v>
       </c>
       <c r="B10">
-        <v>-23</v>
+        <v>-34.6</v>
       </c>
       <c r="C10">
-        <v>-14.7</v>
+        <v>-38.799999999999997</v>
       </c>
       <c r="D10">
-        <v>-3.9</v>
+        <v>-26.1</v>
       </c>
       <c r="E10">
-        <v>4.7</v>
+        <v>-18</v>
       </c>
       <c r="F10">
-        <v>8.8000000000000007</v>
+        <v>-5.7</v>
       </c>
       <c r="G10">
-        <v>15.4</v>
+        <v>7.8</v>
       </c>
       <c r="H10">
-        <v>16</v>
+        <v>12.6</v>
       </c>
       <c r="I10">
-        <v>14</v>
+        <v>6.8</v>
       </c>
       <c r="J10">
-        <v>10.8</v>
+        <v>0.9</v>
       </c>
       <c r="K10">
-        <v>4.4000000000000004</v>
+        <v>-10.7</v>
       </c>
       <c r="L10">
-        <v>-14.8</v>
+        <v>-26.8</v>
       </c>
       <c r="M10">
-        <v>-20.9</v>
+        <v>-35</v>
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
-        <v>13.4</v>
+        <v>-26.1</v>
       </c>
       <c r="O10">
+        <f t="shared" si="1"/>
+        <v>0.52902255639097751</v>
+      </c>
+      <c r="P10">
         <f t="shared" si="2"/>
-        <v>0.13603398166778449</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="1"/>
-        <v>13.263966018332216</v>
+        <v>-26.629022556390979</v>
       </c>
       <c r="R10" s="6">
-        <v>-23.391200536552649</v>
+        <v>-34.945509227614494</v>
       </c>
       <c r="S10" s="6">
-        <v>-15.157920858484237</v>
+        <v>-39.16582365003417</v>
       </c>
       <c r="T10" s="6">
-        <v>-4.4226022803487588</v>
+        <v>-26.629022556390979</v>
       </c>
       <c r="U10" s="6">
         <v>4.3470288397048966</v>
@@ -1544,70 +1545,70 @@
         <v>20</v>
       </c>
       <c r="AG10">
-        <f>SLOPE(J2:J72,$A$2:$A$72)</f>
-        <v>2.3474178403755624E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+        <f>SLOPE(J2:J57,$A$2:$A$57)</f>
+        <v>3.1319207108680795E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1960</v>
+        <v>1975</v>
       </c>
       <c r="B11">
-        <v>-18.600000000000001</v>
+        <v>-33.299999999999997</v>
       </c>
       <c r="C11">
-        <v>-15.1</v>
+        <v>-31.7</v>
       </c>
       <c r="D11">
-        <v>-10.6</v>
+        <v>-25.2</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>-19.100000000000001</v>
       </c>
       <c r="F11">
-        <v>7.3</v>
+        <v>-6.3</v>
       </c>
       <c r="G11">
-        <v>14.7</v>
+        <v>3.1</v>
       </c>
       <c r="H11">
-        <v>14.9</v>
+        <v>7.4</v>
       </c>
       <c r="I11">
-        <v>13.5</v>
+        <v>6.8</v>
       </c>
       <c r="J11">
-        <v>8.5</v>
+        <v>0.3</v>
       </c>
       <c r="K11">
-        <v>-0.9</v>
+        <v>-11.5</v>
       </c>
       <c r="L11">
-        <v>-10.8</v>
+        <v>-25.2</v>
       </c>
       <c r="M11">
-        <v>-20</v>
+        <v>-27.5</v>
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
-        <v>12.299999999999999</v>
+        <v>-25.2</v>
       </c>
       <c r="O11">
+        <f t="shared" si="1"/>
+        <v>0.59515037593984965</v>
+      </c>
+      <c r="P11">
         <f t="shared" si="2"/>
-        <v>0.15303822937625755</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="1"/>
-        <v>12.146961770623742</v>
+        <v>-25.795150375939848</v>
       </c>
       <c r="R11" s="6">
-        <v>-19.040100603621731</v>
+        <v>-33.688697881066297</v>
       </c>
       <c r="S11" s="6">
-        <v>-15.615160965794768</v>
+        <v>-32.111551606288451</v>
       </c>
       <c r="T11" s="6">
-        <v>-11.187927565392354</v>
+        <v>-25.795150375939848</v>
       </c>
       <c r="U11" s="6">
         <v>2.6029074446680083</v>
@@ -1643,70 +1644,70 @@
         <v>21</v>
       </c>
       <c r="AG11">
-        <f>SLOPE(K2:K72,$A$2:$A$72)</f>
-        <v>1.6797451374916166E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+        <f>SLOPE(K2:K57,$A$2:$A$57)</f>
+        <v>8.2699931647300079E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1961</v>
+        <v>1976</v>
       </c>
       <c r="B12">
-        <v>-22.3</v>
+        <v>-33.299999999999997</v>
       </c>
       <c r="C12">
-        <v>-15.7</v>
+        <v>-35.5</v>
       </c>
       <c r="D12">
-        <v>-10.199999999999999</v>
+        <v>-28.9</v>
       </c>
       <c r="E12">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="F12">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="G12">
+        <v>5.8</v>
+      </c>
+      <c r="H12">
+        <v>8.9</v>
+      </c>
+      <c r="I12">
         <v>6.9</v>
       </c>
-      <c r="F12">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="G12">
-        <v>12.6</v>
-      </c>
-      <c r="H12">
-        <v>15.9</v>
-      </c>
-      <c r="I12">
-        <v>13.4</v>
-      </c>
       <c r="J12">
-        <v>8.6</v>
+        <v>1.8</v>
       </c>
       <c r="K12">
-        <v>-2</v>
+        <v>-14.4</v>
       </c>
       <c r="L12">
-        <v>-7.7</v>
+        <v>-28.1</v>
       </c>
       <c r="M12">
-        <v>-17.399999999999999</v>
+        <v>-34.6</v>
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
-        <v>12.899999999999999</v>
+        <v>-28.9</v>
       </c>
       <c r="O12">
+        <f t="shared" si="1"/>
+        <v>0.66127819548872191</v>
+      </c>
+      <c r="P12">
         <f t="shared" si="2"/>
-        <v>0.17004247708473061</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="1"/>
-        <v>12.729957522915267</v>
+        <v>-29.561278195488722</v>
       </c>
       <c r="R12" s="6">
-        <v>-22.789000670690811</v>
+        <v>-33.731886534518111</v>
       </c>
       <c r="S12" s="6">
-        <v>-16.272401073105296</v>
+        <v>-35.957279562542723</v>
       </c>
       <c r="T12" s="6">
-        <v>-10.853252850435949</v>
+        <v>-29.561278195488722</v>
       </c>
       <c r="U12" s="6">
         <v>6.4587860496311205</v>
@@ -1742,70 +1743,70 @@
         <v>22</v>
       </c>
       <c r="AG12">
-        <f>SLOPE(L2:L72,$A$2:$A$72)</f>
-        <v>3.2997987927565399E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+        <f>SLOPE(L2:L57,$A$2:$A$57)</f>
+        <v>0.13208817498291184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1962</v>
+        <v>1977</v>
       </c>
       <c r="B13">
-        <v>-21.9</v>
+        <v>-28.8</v>
       </c>
       <c r="C13">
-        <v>-15.6</v>
+        <v>-36.1</v>
       </c>
       <c r="D13">
-        <v>-3.5</v>
+        <v>-31.3</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>-15.5</v>
       </c>
       <c r="F13">
-        <v>13.2</v>
+        <v>-4.3</v>
       </c>
       <c r="G13">
-        <v>16.399999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="H13">
-        <v>16.899999999999999</v>
+        <v>11.6</v>
       </c>
       <c r="I13">
-        <v>15.6</v>
+        <v>6.5</v>
       </c>
       <c r="J13">
-        <v>10.199999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="K13">
-        <v>1.6</v>
+        <v>-14</v>
       </c>
       <c r="L13">
-        <v>-13.5</v>
+        <v>-28.9</v>
       </c>
       <c r="M13">
-        <v>-14.4</v>
+        <v>-33.700000000000003</v>
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>-31.3</v>
       </c>
       <c r="O13">
+        <f t="shared" si="1"/>
+        <v>0.72740601503759406</v>
+      </c>
+      <c r="P13">
         <f t="shared" si="2"/>
-        <v>0.18704672479320367</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="1"/>
-        <v>15.312953275206796</v>
+        <v>-32.027406015037592</v>
       </c>
       <c r="R13" s="6">
-        <v>-22.43790073775989</v>
+        <v>-29.275075187969925</v>
       </c>
       <c r="S13" s="6">
-        <v>-16.229641180415829</v>
+        <v>-36.603007518796993</v>
       </c>
       <c r="T13" s="6">
-        <v>-4.218578135479544</v>
+        <v>-32.027406015037592</v>
       </c>
       <c r="U13" s="6">
         <v>3.5146646545942319</v>
@@ -1841,70 +1842,70 @@
         <v>23</v>
       </c>
       <c r="AG13">
-        <f>SLOPE(M2:M72,$A$2:$A$72)</f>
-        <v>3.6354795439302486E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+        <f>SLOPE(M2:M57,$A$2:$A$57)</f>
+        <v>4.7053998632945987E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1963</v>
+        <v>1978</v>
       </c>
       <c r="B14">
-        <v>-22.1</v>
+        <v>-34.4</v>
       </c>
       <c r="C14">
-        <v>-15.4</v>
+        <v>-35.299999999999997</v>
       </c>
       <c r="D14">
-        <v>-1.4</v>
+        <v>-24.7</v>
       </c>
       <c r="E14">
-        <v>-0.7</v>
+        <v>-19.600000000000001</v>
       </c>
       <c r="F14">
-        <v>9.3000000000000007</v>
+        <v>-8.4</v>
       </c>
       <c r="G14">
-        <v>14.6</v>
+        <v>3.5</v>
       </c>
       <c r="H14">
-        <v>16.399999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="I14">
-        <v>14.7</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="J14">
-        <v>7.9</v>
+        <v>-0.6</v>
       </c>
       <c r="K14">
-        <v>1.8</v>
+        <v>-13.2</v>
       </c>
       <c r="L14">
-        <v>-7.3</v>
+        <v>-23.7</v>
       </c>
       <c r="M14">
-        <v>-15.5</v>
+        <v>-33.299999999999997</v>
       </c>
       <c r="N14">
         <f t="shared" si="0"/>
-        <v>13.433333333333332</v>
+        <v>-24.7</v>
       </c>
       <c r="O14">
+        <f t="shared" si="1"/>
+        <v>0.7935338345864662</v>
+      </c>
+      <c r="P14">
         <f t="shared" si="2"/>
-        <v>0.20405097250167675</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="1"/>
-        <v>13.229282360831656</v>
+        <v>-25.493533834586465</v>
       </c>
       <c r="R14" s="6">
-        <v>-22.686800804828977</v>
+        <v>-34.918263841421734</v>
       </c>
       <c r="S14" s="6">
-        <v>-16.08688128772636</v>
+        <v>-35.848735475051264</v>
       </c>
       <c r="T14" s="6">
-        <v>-2.1839034205231389</v>
+        <v>-25.493533834586465</v>
       </c>
       <c r="U14" s="6">
         <v>-1.2294567404426557</v>
@@ -1940,70 +1941,70 @@
         <v>41</v>
       </c>
       <c r="AG14">
-        <f>SLOPE(N2:N72,$A$2:$A$72)</f>
-        <v>1.7004247708473062E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+        <f>SLOPE(N2:N57,$A$2:$A$57)</f>
+        <v>6.6127819548872188E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1964</v>
+        <v>1979</v>
       </c>
       <c r="B15">
-        <v>-16.8</v>
+        <v>-35.1</v>
       </c>
       <c r="C15">
+        <v>-35.700000000000003</v>
+      </c>
+      <c r="D15">
+        <v>-29.4</v>
+      </c>
+      <c r="E15">
         <v>-23.9</v>
       </c>
-      <c r="D15">
-        <v>-5.4</v>
-      </c>
-      <c r="E15">
-        <v>2.4</v>
-      </c>
       <c r="F15">
-        <v>9.6</v>
+        <v>-3.6</v>
       </c>
       <c r="G15">
-        <v>16</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H15">
-        <v>17.3</v>
+        <v>6.7</v>
       </c>
       <c r="I15">
-        <v>13.9</v>
+        <v>4.2</v>
       </c>
       <c r="J15">
-        <v>8.9</v>
+        <v>-2</v>
       </c>
       <c r="K15">
-        <v>-2.2000000000000002</v>
+        <v>-16.7</v>
       </c>
       <c r="L15">
-        <v>-5.9</v>
+        <v>-29.7</v>
       </c>
       <c r="M15">
-        <v>-14.3</v>
+        <v>-32.299999999999997</v>
       </c>
       <c r="N15">
         <f t="shared" si="0"/>
-        <v>14.300000000000002</v>
+        <v>-29.4</v>
       </c>
       <c r="O15">
+        <f t="shared" si="1"/>
+        <v>0.85966165413533846</v>
+      </c>
+      <c r="P15">
         <f t="shared" si="2"/>
-        <v>0.22105522021014981</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="1"/>
-        <v>14.078944779789852</v>
+        <v>-30.259661654135336</v>
       </c>
       <c r="R15" s="6">
-        <v>-17.435700871898057</v>
+        <v>-35.661452494873551</v>
       </c>
       <c r="S15" s="6">
-        <v>-24.644121395036887</v>
+        <v>-36.294463431305537</v>
       </c>
       <c r="T15" s="6">
-        <v>-6.2492287055667344</v>
+        <v>-30.259661654135336</v>
       </c>
       <c r="U15" s="6">
         <v>1.826421864520456</v>
@@ -2036,66 +2037,66 @@
         <v>14.078944779789852</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1965</v>
+        <v>1980</v>
       </c>
       <c r="B16">
-        <v>-18.600000000000001</v>
+        <v>-32</v>
       </c>
       <c r="C16">
-        <v>-18.3</v>
+        <v>-33.299999999999997</v>
       </c>
       <c r="D16">
-        <v>-8.1</v>
+        <v>-30.1</v>
       </c>
       <c r="E16">
+        <v>-22.6</v>
+      </c>
+      <c r="F16">
+        <v>-7.7</v>
+      </c>
+      <c r="G16">
+        <v>5.9</v>
+      </c>
+      <c r="H16">
+        <v>9</v>
+      </c>
+      <c r="I16">
+        <v>9.1</v>
+      </c>
+      <c r="J16">
         <v>2.7</v>
       </c>
-      <c r="F16">
-        <v>12.7</v>
-      </c>
-      <c r="G16">
-        <v>15.8</v>
-      </c>
-      <c r="H16">
-        <v>18.8</v>
-      </c>
-      <c r="I16">
-        <v>14.4</v>
-      </c>
-      <c r="J16">
-        <v>9</v>
-      </c>
       <c r="K16">
-        <v>2.4</v>
+        <v>-12.5</v>
       </c>
       <c r="L16">
-        <v>-5.9</v>
+        <v>-31.8</v>
       </c>
       <c r="M16">
-        <v>-19.7</v>
+        <v>-29.9</v>
       </c>
       <c r="N16">
         <f t="shared" si="0"/>
-        <v>15.766666666666666</v>
+        <v>-30.1</v>
       </c>
       <c r="O16">
+        <f t="shared" si="1"/>
+        <v>0.92578947368421061</v>
+      </c>
+      <c r="P16">
         <f t="shared" si="2"/>
-        <v>0.23805946791862287</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="1"/>
-        <v>15.528607198748043</v>
+        <v>-31.025789473684213</v>
       </c>
       <c r="R16" s="6">
-        <v>-19.284600938967138</v>
+        <v>-32.604641148325356</v>
       </c>
       <c r="S16" s="6">
-        <v>-19.101361502347419</v>
+        <v>-33.940191387559807</v>
       </c>
       <c r="T16" s="6">
-        <v>-9.0145539906103291</v>
+        <v>-31.025789473684213</v>
       </c>
       <c r="U16" s="6">
         <v>2.0823004694835685</v>
@@ -2128,66 +2129,66 @@
         <v>15.528607198748043</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1966</v>
+        <v>1981</v>
       </c>
       <c r="B17">
-        <v>-19.100000000000001</v>
+        <v>-30.4</v>
       </c>
       <c r="C17">
-        <v>-14.3</v>
+        <v>-32.1</v>
       </c>
       <c r="D17">
-        <v>-5.8</v>
+        <v>-26.4</v>
       </c>
       <c r="E17">
-        <v>2.4</v>
+        <v>-16.5</v>
       </c>
       <c r="F17">
-        <v>9.4</v>
+        <v>-3.3</v>
       </c>
       <c r="G17">
-        <v>15.6</v>
+        <v>6.2</v>
       </c>
       <c r="H17">
-        <v>16.8</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I17">
-        <v>15.4</v>
+        <v>8</v>
       </c>
       <c r="J17">
-        <v>11.1</v>
+        <v>1.2</v>
       </c>
       <c r="K17">
-        <v>0.7</v>
+        <v>-10.199999999999999</v>
       </c>
       <c r="L17">
-        <v>-9.1</v>
+        <v>-24.8</v>
       </c>
       <c r="M17">
-        <v>-28.3</v>
+        <v>-32.1</v>
       </c>
       <c r="N17">
         <f t="shared" si="0"/>
-        <v>13.933333333333332</v>
+        <v>-26.4</v>
       </c>
       <c r="O17">
+        <f t="shared" si="1"/>
+        <v>0.99191729323308286</v>
+      </c>
+      <c r="P17">
         <f t="shared" si="2"/>
-        <v>0.2550637156270959</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="1"/>
-        <v>13.678269617706237</v>
+        <v>-27.391917293233082</v>
       </c>
       <c r="R17" s="6">
-        <v>-19.833501006036219</v>
+        <v>-31.047829801777169</v>
       </c>
       <c r="S17" s="6">
-        <v>-15.158601609657948</v>
+        <v>-32.785919343814079</v>
       </c>
       <c r="T17" s="6">
-        <v>-6.7798792756539239</v>
+        <v>-27.391917293233082</v>
       </c>
       <c r="U17" s="6">
         <v>1.7381790744466801</v>
@@ -2220,66 +2221,66 @@
         <v>13.678269617706237</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1967</v>
+        <v>1982</v>
       </c>
       <c r="B18">
-        <v>-25.5</v>
+        <v>-37.4</v>
       </c>
       <c r="C18">
-        <v>-17.5</v>
+        <v>-31.6</v>
       </c>
       <c r="D18">
-        <v>-5.6</v>
+        <v>-31</v>
       </c>
       <c r="E18">
-        <v>4.5</v>
+        <v>-18</v>
       </c>
       <c r="F18">
-        <v>12.8</v>
+        <v>-10.7</v>
       </c>
       <c r="G18">
-        <v>13.7</v>
+        <v>2.7</v>
       </c>
       <c r="H18">
-        <v>16.2</v>
+        <v>10.9</v>
       </c>
       <c r="I18">
-        <v>12.4</v>
+        <v>7.6</v>
       </c>
       <c r="J18">
-        <v>7.1</v>
+        <v>2.7</v>
       </c>
       <c r="K18">
-        <v>1.9</v>
+        <v>-11.9</v>
       </c>
       <c r="L18">
-        <v>-15.4</v>
+        <v>-30.1</v>
       </c>
       <c r="M18">
-        <v>-23.1</v>
+        <v>-32.6</v>
       </c>
       <c r="N18">
         <f t="shared" si="0"/>
-        <v>14.233333333333334</v>
+        <v>-31</v>
       </c>
       <c r="O18">
+        <f t="shared" si="1"/>
+        <v>1.058045112781955</v>
+      </c>
+      <c r="P18">
         <f t="shared" si="2"/>
-        <v>0.27206796333556899</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="1"/>
-        <v>13.961265369997765</v>
+        <v>-32.058045112781954</v>
       </c>
       <c r="R18" s="6">
-        <v>-26.282401073105298</v>
+        <v>-38.091018455228983</v>
       </c>
       <c r="S18" s="6">
-        <v>-18.415841716968476</v>
+        <v>-32.331647300068354</v>
       </c>
       <c r="T18" s="6">
-        <v>-6.6452045606975183</v>
+        <v>-32.058045112781954</v>
       </c>
       <c r="U18" s="6">
         <v>3.794057679409792</v>
@@ -2312,66 +2313,66 @@
         <v>13.961265369997765</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1968</v>
+        <v>1983</v>
       </c>
       <c r="B19">
-        <v>-22.7</v>
+        <v>-33.9</v>
       </c>
       <c r="C19">
-        <v>-19.3</v>
+        <v>-31.3</v>
       </c>
       <c r="D19">
-        <v>-3.4</v>
+        <v>-27.7</v>
       </c>
       <c r="E19">
-        <v>2.5</v>
+        <v>-21.7</v>
       </c>
       <c r="F19">
-        <v>12</v>
+        <v>-3.6</v>
       </c>
       <c r="G19">
-        <v>15.5</v>
+        <v>5</v>
       </c>
       <c r="H19">
-        <v>16.899999999999999</v>
+        <v>10.6</v>
       </c>
       <c r="I19">
-        <v>14.2</v>
+        <v>9.6</v>
       </c>
       <c r="J19">
-        <v>5.2</v>
+        <v>2</v>
       </c>
       <c r="K19">
-        <v>-2</v>
+        <v>-14.3</v>
       </c>
       <c r="L19">
-        <v>-9</v>
+        <v>-27.2</v>
       </c>
       <c r="M19">
-        <v>-16.600000000000001</v>
+        <v>-31.7</v>
       </c>
       <c r="N19">
         <f t="shared" si="0"/>
-        <v>14.799999999999999</v>
+        <v>-27.7</v>
       </c>
       <c r="O19">
+        <f t="shared" si="1"/>
+        <v>1.1241729323308272</v>
+      </c>
+      <c r="P19">
         <f t="shared" si="2"/>
-        <v>0.28907221104404207</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="1"/>
-        <v>14.510927788955957</v>
+        <v>-28.824172932330825</v>
       </c>
       <c r="R19" s="6">
-        <v>-23.531301140174378</v>
+        <v>-34.634207108680791</v>
       </c>
       <c r="S19" s="6">
-        <v>-20.273081824279007</v>
+        <v>-32.077375256322625</v>
       </c>
       <c r="T19" s="6">
-        <v>-4.5105298457411136</v>
+        <v>-28.824172932330825</v>
       </c>
       <c r="U19" s="6">
         <v>1.7499362843729043</v>
@@ -2404,66 +2405,66 @@
         <v>14.510927788955957</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1969</v>
+        <v>1984</v>
       </c>
       <c r="B20">
-        <v>-28.6</v>
+        <v>-31</v>
       </c>
       <c r="C20">
-        <v>-22.7</v>
+        <v>-38.200000000000003</v>
       </c>
       <c r="D20">
-        <v>-8.9</v>
+        <v>-27.7</v>
       </c>
       <c r="E20">
-        <v>3.1</v>
+        <v>-19.5</v>
       </c>
       <c r="F20">
-        <v>9</v>
+        <v>-6.4</v>
       </c>
       <c r="G20">
-        <v>15.7</v>
+        <v>2.7</v>
       </c>
       <c r="H20">
-        <v>18.3</v>
+        <v>6.9</v>
       </c>
       <c r="I20">
-        <v>12.3</v>
+        <v>4.8</v>
       </c>
       <c r="J20">
-        <v>7.4</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="K20">
-        <v>1.9</v>
+        <v>-11.5</v>
       </c>
       <c r="L20">
-        <v>-10.1</v>
+        <v>-21</v>
       </c>
       <c r="M20">
-        <v>-22.1</v>
+        <v>-35.1</v>
       </c>
       <c r="N20">
         <f t="shared" si="0"/>
-        <v>14.333333333333334</v>
+        <v>-27.7</v>
       </c>
       <c r="O20">
+        <f t="shared" si="1"/>
+        <v>1.1903007518796993</v>
+      </c>
+      <c r="P20">
         <f t="shared" si="2"/>
-        <v>0.3060764587525151</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="1"/>
-        <v>14.027256874580818</v>
+        <v>-28.8903007518797</v>
       </c>
       <c r="R20" s="6">
-        <v>-29.480201207243461</v>
+        <v>-31.777395762132603</v>
       </c>
       <c r="S20" s="6">
-        <v>-23.730321931589536</v>
+        <v>-39.023103212576899</v>
       </c>
       <c r="T20" s="6">
-        <v>-10.075855130784708</v>
+        <v>-28.8903007518797</v>
       </c>
       <c r="U20" s="6">
         <v>2.3058148893360162</v>
@@ -2496,66 +2497,66 @@
         <v>14.027256874580818</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1970</v>
+        <v>1985</v>
       </c>
       <c r="B21">
-        <v>-18.899999999999999</v>
+        <v>-32.9</v>
       </c>
       <c r="C21">
-        <v>-13.6</v>
+        <v>-27.3</v>
       </c>
       <c r="D21">
-        <v>-10</v>
+        <v>-28</v>
       </c>
       <c r="E21">
-        <v>2.7</v>
+        <v>-20.399999999999999</v>
       </c>
       <c r="F21">
-        <v>9.4</v>
+        <v>-9</v>
       </c>
       <c r="G21">
-        <v>13.9</v>
+        <v>5.2</v>
       </c>
       <c r="H21">
-        <v>15.7</v>
+        <v>9.5</v>
       </c>
       <c r="I21">
-        <v>13.6</v>
+        <v>5</v>
       </c>
       <c r="J21">
-        <v>8.8000000000000007</v>
+        <v>0.9</v>
       </c>
       <c r="K21">
-        <v>1.3</v>
+        <v>-13.3</v>
       </c>
       <c r="L21">
-        <v>-11.7</v>
+        <v>-23.1</v>
       </c>
       <c r="M21">
-        <v>-18.2</v>
+        <v>-28.1</v>
       </c>
       <c r="N21">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>-28</v>
       </c>
       <c r="O21">
+        <f t="shared" si="1"/>
+        <v>1.2564285714285717</v>
+      </c>
+      <c r="P21">
         <f t="shared" si="2"/>
-        <v>0.32308070646098819</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="1"/>
-        <v>12.676919293539012</v>
+        <v>-29.256428571428572</v>
       </c>
       <c r="R21" s="6">
-        <v>-19.829101274312542</v>
+        <v>-33.720584415584412</v>
       </c>
       <c r="S21" s="6">
-        <v>-14.687562038900067</v>
+        <v>-28.168831168831169</v>
       </c>
       <c r="T21" s="6">
-        <v>-11.241180415828303</v>
+        <v>-29.256428571428572</v>
       </c>
       <c r="U21" s="6">
         <v>1.8616934942991286</v>
@@ -2588,66 +2589,66 @@
         <v>12.676919293539012</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1971</v>
+        <v>1986</v>
       </c>
       <c r="B22">
-        <v>-15.4</v>
+        <v>-36.5</v>
       </c>
       <c r="C22">
-        <v>-16.899999999999999</v>
+        <v>-31.2</v>
       </c>
       <c r="D22">
-        <v>-10.3</v>
+        <v>-27.9</v>
       </c>
       <c r="E22">
-        <v>4.5999999999999996</v>
+        <v>-17.399999999999999</v>
       </c>
       <c r="F22">
-        <v>9.6</v>
+        <v>-6.1</v>
       </c>
       <c r="G22">
-        <v>15.2</v>
+        <v>7.4</v>
       </c>
       <c r="H22">
-        <v>15.3</v>
+        <v>7.8</v>
       </c>
       <c r="I22">
-        <v>13.6</v>
+        <v>6.2</v>
       </c>
       <c r="J22">
-        <v>8.8000000000000007</v>
+        <v>-0.5</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>-11.9</v>
       </c>
       <c r="L22">
-        <v>-7.9</v>
+        <v>-26.3</v>
       </c>
       <c r="M22">
-        <v>-14.7</v>
+        <v>-32.799999999999997</v>
       </c>
       <c r="N22">
         <f t="shared" si="0"/>
-        <v>13.366666666666665</v>
+        <v>-27.9</v>
       </c>
       <c r="O22">
+        <f t="shared" si="1"/>
+        <v>1.3225563909774438</v>
+      </c>
+      <c r="P22">
         <f t="shared" si="2"/>
-        <v>0.34008495416946122</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="1"/>
-        <v>13.026581712497205</v>
+        <v>-29.222556390977442</v>
       </c>
       <c r="R22" s="6">
-        <v>-16.378001341381623</v>
+        <v>-37.363773069036228</v>
       </c>
       <c r="S22" s="6">
-        <v>-18.044802146210596</v>
+        <v>-32.114559125085442</v>
       </c>
       <c r="T22" s="6">
-        <v>-11.606505700871899</v>
+        <v>-29.222556390977442</v>
       </c>
       <c r="U22" s="6">
         <v>3.7175720992622399</v>
@@ -2680,66 +2681,66 @@
         <v>13.026581712497205</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1972</v>
+        <v>1987</v>
       </c>
       <c r="B23">
-        <v>-21.8</v>
+        <v>-32.799999999999997</v>
       </c>
       <c r="C23">
-        <v>-17.7</v>
+        <v>-35.799999999999997</v>
       </c>
       <c r="D23">
-        <v>-6.9</v>
+        <v>-29.2</v>
       </c>
       <c r="E23">
-        <v>6.3</v>
+        <v>-20.2</v>
       </c>
       <c r="F23">
-        <v>9.8000000000000007</v>
+        <v>-7.3</v>
       </c>
       <c r="G23">
-        <v>15.6</v>
+        <v>5.2</v>
       </c>
       <c r="H23">
-        <v>14.1</v>
+        <v>12.6</v>
       </c>
       <c r="I23">
-        <v>13.4</v>
+        <v>7.9</v>
       </c>
       <c r="J23">
-        <v>6.7</v>
+        <v>-0.3</v>
       </c>
       <c r="K23">
-        <v>0.7</v>
+        <v>-15</v>
       </c>
       <c r="L23">
-        <v>-7.6</v>
+        <v>-29.9</v>
       </c>
       <c r="M23">
-        <v>-16.899999999999999</v>
+        <v>-37.1</v>
       </c>
       <c r="N23">
         <f t="shared" si="0"/>
-        <v>13.166666666666666</v>
+        <v>-29.2</v>
       </c>
       <c r="O23">
+        <f t="shared" si="1"/>
+        <v>1.388684210526316</v>
+      </c>
+      <c r="P23">
         <f t="shared" si="2"/>
-        <v>0.3570892018779343</v>
-      </c>
-      <c r="P23">
-        <f t="shared" si="1"/>
-        <v>12.809577464788731</v>
+        <v>-30.588684210526317</v>
       </c>
       <c r="R23" s="6">
-        <v>-22.826901408450706</v>
+        <v>-33.706961722488039</v>
       </c>
       <c r="S23" s="6">
-        <v>-18.902042253521127</v>
+        <v>-36.760287081339712</v>
       </c>
       <c r="T23" s="6">
-        <v>-8.2718309859154928</v>
+        <v>-30.588684210526317</v>
       </c>
       <c r="U23" s="6">
         <v>5.3734507042253519</v>
@@ -2772,66 +2773,66 @@
         <v>12.809577464788731</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1973</v>
+        <v>1988</v>
       </c>
       <c r="B24">
-        <v>-14.4</v>
+        <v>-34.5</v>
       </c>
       <c r="C24">
-        <v>-15.8</v>
+        <v>-31.7</v>
       </c>
       <c r="D24">
-        <v>-6.4</v>
+        <v>-26.1</v>
       </c>
       <c r="E24">
-        <v>4.2</v>
+        <v>-15.7</v>
       </c>
       <c r="F24">
-        <v>8.4</v>
+        <v>-7.4</v>
       </c>
       <c r="G24">
-        <v>15.2</v>
+        <v>5.3</v>
       </c>
       <c r="H24">
-        <v>15.7</v>
+        <v>13</v>
       </c>
       <c r="I24">
-        <v>14.3</v>
+        <v>5.4</v>
       </c>
       <c r="J24">
-        <v>8.9</v>
+        <v>3.2</v>
       </c>
       <c r="K24">
-        <v>0.8</v>
+        <v>-11.3</v>
       </c>
       <c r="L24">
-        <v>-6.7</v>
+        <v>-25.2</v>
       </c>
       <c r="M24">
-        <v>-17.600000000000001</v>
+        <v>-30.8</v>
       </c>
       <c r="N24">
         <f t="shared" si="0"/>
-        <v>13.1</v>
+        <v>-26.1</v>
       </c>
       <c r="O24">
+        <f t="shared" si="1"/>
+        <v>1.4548120300751881</v>
+      </c>
+      <c r="P24">
         <f t="shared" si="2"/>
-        <v>0.37409344958640733</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="1"/>
-        <v>12.725906550413592</v>
+        <v>-27.55481203007519</v>
       </c>
       <c r="R24" s="6">
-        <v>-15.475801475519786</v>
+        <v>-35.450150375939849</v>
       </c>
       <c r="S24" s="6">
-        <v>-17.059282360831656</v>
+        <v>-32.706015037593986</v>
       </c>
       <c r="T24" s="6">
-        <v>-7.8371562709590883</v>
+        <v>-27.55481203007519</v>
       </c>
       <c r="U24" s="6">
         <v>3.2293293091884645</v>
@@ -2864,66 +2865,66 @@
         <v>12.725906550413592</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1974</v>
+        <v>1989</v>
       </c>
       <c r="B25">
+        <v>-35.6</v>
+      </c>
+      <c r="C25">
+        <v>-29.9</v>
+      </c>
+      <c r="D25">
+        <v>-23.7</v>
+      </c>
+      <c r="E25">
         <v>-19.3</v>
       </c>
-      <c r="C25">
-        <v>-16.399999999999999</v>
-      </c>
-      <c r="D25">
-        <v>-5.5</v>
-      </c>
-      <c r="E25">
-        <v>5.9</v>
-      </c>
       <c r="F25">
-        <v>12.1</v>
+        <v>-6.4</v>
       </c>
       <c r="G25">
-        <v>14.8</v>
+        <v>6.9</v>
       </c>
       <c r="H25">
-        <v>18.8</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I25">
-        <v>15.6</v>
+        <v>6.8</v>
       </c>
       <c r="J25">
-        <v>7.7</v>
+        <v>3.2</v>
       </c>
       <c r="K25">
-        <v>-0.3</v>
+        <v>-13.4</v>
       </c>
       <c r="L25">
-        <v>-8.1</v>
+        <v>-26.5</v>
       </c>
       <c r="M25">
-        <v>-24.5</v>
+        <v>-28</v>
       </c>
       <c r="N25">
         <f t="shared" si="0"/>
-        <v>15.233333333333334</v>
+        <v>-23.7</v>
       </c>
       <c r="O25">
+        <f t="shared" si="1"/>
+        <v>1.5209398496240603</v>
+      </c>
+      <c r="P25">
         <f t="shared" si="2"/>
-        <v>0.39109769729488042</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="1"/>
-        <v>14.842235636038454</v>
+        <v>-25.22093984962406</v>
       </c>
       <c r="R25" s="6">
-        <v>-20.424701542588867</v>
+        <v>-36.593339029391664</v>
       </c>
       <c r="S25" s="6">
-        <v>-17.716522468142184</v>
+        <v>-30.951742993848256</v>
       </c>
       <c r="T25" s="6">
-        <v>-7.0024815560026834</v>
+        <v>-25.22093984962406</v>
       </c>
       <c r="U25" s="6">
         <v>4.885207914151577</v>
@@ -2956,66 +2957,66 @@
         <v>14.842235636038454</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1975</v>
+        <v>1990</v>
       </c>
       <c r="B26">
-        <v>-18.100000000000001</v>
+        <v>-34</v>
       </c>
       <c r="C26">
-        <v>-15.4</v>
+        <v>-33.9</v>
       </c>
       <c r="D26">
-        <v>-4.5</v>
+        <v>-19.600000000000001</v>
       </c>
       <c r="E26">
-        <v>1.8</v>
+        <v>-13.8</v>
       </c>
       <c r="F26">
-        <v>8.6</v>
+        <v>1.7</v>
       </c>
       <c r="G26">
-        <v>14.3</v>
+        <v>7.6</v>
       </c>
       <c r="H26">
-        <v>17.600000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="I26">
-        <v>13.9</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="J26">
-        <v>9.1999999999999993</v>
+        <v>0.4</v>
       </c>
       <c r="K26">
-        <v>2.1</v>
+        <v>-12.1</v>
       </c>
       <c r="L26">
-        <v>-9.1999999999999993</v>
+        <v>-26.3</v>
       </c>
       <c r="M26">
-        <v>-20.2</v>
+        <v>-34.6</v>
       </c>
       <c r="N26">
         <f t="shared" si="0"/>
-        <v>13.5</v>
+        <v>-19.600000000000001</v>
       </c>
       <c r="O26">
+        <f t="shared" si="1"/>
+        <v>1.5870676691729324</v>
+      </c>
+      <c r="P26">
         <f t="shared" si="2"/>
-        <v>0.40810194500335351</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="1"/>
-        <v>13.091898054996646</v>
+        <v>-21.187067669172933</v>
       </c>
       <c r="R26" s="6">
-        <v>-19.273601609657948</v>
+        <v>-35.03652768284347</v>
       </c>
       <c r="S26" s="6">
-        <v>-16.773762575452718</v>
+        <v>-34.997470950102525</v>
       </c>
       <c r="T26" s="6">
-        <v>-6.067806841046278</v>
+        <v>-21.187067669172933</v>
       </c>
       <c r="U26" s="6">
         <v>0.74108651911468848</v>
@@ -3048,66 +3049,66 @@
         <v>13.091898054996646</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1976</v>
+        <v>1991</v>
       </c>
       <c r="B27">
-        <v>-19.600000000000001</v>
+        <v>-33.1</v>
       </c>
       <c r="C27">
-        <v>-15</v>
+        <v>-34.700000000000003</v>
       </c>
       <c r="D27">
-        <v>-9.6999999999999993</v>
+        <v>-31.4</v>
       </c>
       <c r="E27">
-        <v>3.8</v>
+        <v>-17.100000000000001</v>
       </c>
       <c r="F27">
-        <v>10.7</v>
+        <v>-3.7</v>
       </c>
       <c r="G27">
+        <v>5.6</v>
+      </c>
+      <c r="H27">
         <v>16.3</v>
       </c>
-      <c r="H27">
-        <v>14.4</v>
-      </c>
       <c r="I27">
-        <v>13.7</v>
+        <v>12.7</v>
       </c>
       <c r="J27">
-        <v>8.3000000000000007</v>
+        <v>1</v>
       </c>
       <c r="K27">
-        <v>-1.3</v>
+        <v>-10.6</v>
       </c>
       <c r="L27">
-        <v>-14.3</v>
+        <v>-22.5</v>
       </c>
       <c r="M27">
-        <v>-22.1</v>
+        <v>-27.6</v>
       </c>
       <c r="N27">
         <f t="shared" si="0"/>
-        <v>13.799999999999999</v>
+        <v>-31.4</v>
       </c>
       <c r="O27">
+        <f t="shared" si="1"/>
+        <v>1.6531954887218048</v>
+      </c>
+      <c r="P27">
         <f t="shared" si="2"/>
-        <v>0.42510619271182654</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="1"/>
-        <v>13.374893807288172</v>
+        <v>-33.053195488721805</v>
       </c>
       <c r="R27" s="6">
-        <v>-20.822501676727029</v>
+        <v>-34.179716336295286</v>
       </c>
       <c r="S27" s="6">
-        <v>-16.431002682763246</v>
+        <v>-35.843198906356804</v>
       </c>
       <c r="T27" s="6">
-        <v>-11.333132126089872</v>
+        <v>-33.053195488721805</v>
       </c>
       <c r="U27" s="6">
         <v>2.6969651240778001</v>
@@ -3140,66 +3141,66 @@
         <v>13.374893807288172</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1977</v>
+        <v>1992</v>
       </c>
       <c r="B28">
-        <v>-26.4</v>
+        <v>-36.9</v>
       </c>
       <c r="C28">
-        <v>-16.3</v>
+        <v>-32.4</v>
       </c>
       <c r="D28">
-        <v>-8.3000000000000007</v>
+        <v>-28.2</v>
       </c>
       <c r="E28">
-        <v>4</v>
+        <v>-18.7</v>
       </c>
       <c r="F28">
-        <v>10</v>
+        <v>-6.2</v>
       </c>
       <c r="G28">
-        <v>16.600000000000001</v>
+        <v>3.7</v>
       </c>
       <c r="H28">
-        <v>16.7</v>
+        <v>10.3</v>
       </c>
       <c r="I28">
-        <v>13.6</v>
+        <v>3.9</v>
       </c>
       <c r="J28">
-        <v>10.5</v>
+        <v>-0.2</v>
       </c>
       <c r="K28">
-        <v>2.4</v>
+        <v>-14.4</v>
       </c>
       <c r="L28">
-        <v>-9.1999999999999993</v>
+        <v>-28.7</v>
       </c>
       <c r="M28">
-        <v>-13.9</v>
+        <v>-31.9</v>
       </c>
       <c r="N28">
         <f t="shared" si="0"/>
-        <v>14.433333333333332</v>
+        <v>-28.2</v>
       </c>
       <c r="O28">
+        <f t="shared" si="1"/>
+        <v>1.7193233082706769</v>
+      </c>
+      <c r="P28">
         <f t="shared" si="2"/>
-        <v>0.44211044042029962</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="1"/>
-        <v>13.991222892913033</v>
+        <v>-29.919323308270677</v>
       </c>
       <c r="R28" s="6">
-        <v>-27.671401743796107</v>
+        <v>-38.02290498974709</v>
       </c>
       <c r="S28" s="6">
-        <v>-17.788242790073777</v>
+        <v>-33.588926862611075</v>
       </c>
       <c r="T28" s="6">
-        <v>-9.9984574111334688</v>
+        <v>-29.919323308270677</v>
       </c>
       <c r="U28" s="6">
         <v>2.8528437290409121</v>
@@ -3232,66 +3233,66 @@
         <v>13.991222892913033</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1978</v>
+        <v>1993</v>
       </c>
       <c r="B29">
-        <v>-19.399999999999999</v>
+        <v>-34.5</v>
       </c>
       <c r="C29">
-        <v>-15.5</v>
+        <v>-32.200000000000003</v>
       </c>
       <c r="D29">
-        <v>-4.9000000000000004</v>
+        <v>-29.4</v>
       </c>
       <c r="E29">
-        <v>6.2</v>
+        <v>-17.399999999999999</v>
       </c>
       <c r="F29">
-        <v>9.5</v>
+        <v>-5.5</v>
       </c>
       <c r="G29">
-        <v>16.899999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="H29">
-        <v>17.399999999999999</v>
+        <v>10</v>
       </c>
       <c r="I29">
-        <v>11.8</v>
+        <v>5.7</v>
       </c>
       <c r="J29">
-        <v>10.4</v>
+        <v>0.4</v>
       </c>
       <c r="K29">
-        <v>1.5</v>
+        <v>-13.3</v>
       </c>
       <c r="L29">
-        <v>-5.9</v>
+        <v>-28</v>
       </c>
       <c r="M29">
-        <v>-12.7</v>
+        <v>-38.5</v>
       </c>
       <c r="N29">
         <f t="shared" si="0"/>
-        <v>14.6</v>
+        <v>-29.4</v>
       </c>
       <c r="O29">
+        <f t="shared" si="1"/>
+        <v>1.7854511278195491</v>
+      </c>
+      <c r="P29">
         <f t="shared" si="2"/>
-        <v>0.45911468812877265</v>
-      </c>
-      <c r="P29">
-        <f t="shared" si="1"/>
-        <v>14.140885311871227</v>
+        <v>-31.185451127819547</v>
       </c>
       <c r="R29" s="6">
-        <v>-20.720301810865191</v>
+        <v>-35.666093643198906</v>
       </c>
       <c r="S29" s="6">
-        <v>-17.045482897384307</v>
+        <v>-33.434654818865347</v>
       </c>
       <c r="T29" s="6">
-        <v>-6.663782696177063</v>
+        <v>-31.185451127819547</v>
       </c>
       <c r="U29" s="6">
         <v>5.008722334004025</v>
@@ -3324,66 +3325,66 @@
         <v>14.140885311871227</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1979</v>
+        <v>1994</v>
       </c>
       <c r="B30">
-        <v>-17.8</v>
+        <v>-32.799999999999997</v>
       </c>
       <c r="C30">
-        <v>-12.4</v>
+        <v>-28.4</v>
       </c>
       <c r="D30">
-        <v>-7.8</v>
+        <v>-29.7</v>
       </c>
       <c r="E30">
-        <v>1.4</v>
+        <v>-19.7</v>
       </c>
       <c r="F30">
-        <v>10.6</v>
+        <v>-5.8</v>
       </c>
       <c r="G30">
-        <v>16.8</v>
+        <v>5.3</v>
       </c>
       <c r="H30">
-        <v>18.3</v>
+        <v>10</v>
       </c>
       <c r="I30">
-        <v>14.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="J30">
-        <v>8.5</v>
+        <v>2.9</v>
       </c>
       <c r="K30">
-        <v>3.2</v>
+        <v>-10.3</v>
       </c>
       <c r="L30">
-        <v>-10.1</v>
+        <v>-25</v>
       </c>
       <c r="M30">
-        <v>-15.1</v>
+        <v>-31.9</v>
       </c>
       <c r="N30">
         <f t="shared" si="0"/>
-        <v>15.233333333333334</v>
+        <v>-29.7</v>
       </c>
       <c r="O30">
+        <f t="shared" si="1"/>
+        <v>1.8515789473684212</v>
+      </c>
+      <c r="P30">
         <f t="shared" si="2"/>
-        <v>0.47611893583724574</v>
-      </c>
-      <c r="P30">
-        <f t="shared" si="1"/>
-        <v>14.757214397496089</v>
+        <v>-31.551578947368419</v>
       </c>
       <c r="R30" s="6">
-        <v>-19.169201877934274</v>
+        <v>-34.009282296650717</v>
       </c>
       <c r="S30" s="6">
-        <v>-14.002723004694836</v>
+        <v>-29.680382775119615</v>
       </c>
       <c r="T30" s="6">
-        <v>-9.6291079812206579</v>
+        <v>-31.551578947368419</v>
       </c>
       <c r="U30" s="6">
         <v>0.16460093896713635</v>
@@ -3416,66 +3417,66 @@
         <v>14.757214397496089</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1980</v>
+        <v>1995</v>
       </c>
       <c r="B31">
-        <v>-19.8</v>
+        <v>-35.1</v>
       </c>
       <c r="C31">
-        <v>-19.100000000000001</v>
+        <v>-25</v>
       </c>
       <c r="D31">
-        <v>-9.8000000000000007</v>
+        <v>-27.5</v>
       </c>
       <c r="E31">
-        <v>3.3</v>
+        <v>-20.7</v>
       </c>
       <c r="F31">
-        <v>12.1</v>
+        <v>-4.3</v>
       </c>
       <c r="G31">
-        <v>14.4</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="H31">
-        <v>16.5</v>
+        <v>10.5</v>
       </c>
       <c r="I31">
-        <v>15.3</v>
+        <v>10.1</v>
       </c>
       <c r="J31">
-        <v>9.3000000000000007</v>
+        <v>3.5</v>
       </c>
       <c r="K31">
-        <v>0.4</v>
+        <v>-10.199999999999999</v>
       </c>
       <c r="L31">
-        <v>-6.1</v>
+        <v>-21.1</v>
       </c>
       <c r="M31">
-        <v>-19.3</v>
+        <v>-29.3</v>
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
-        <v>14.333333333333334</v>
+        <v>-27.5</v>
       </c>
       <c r="O31">
+        <f t="shared" si="1"/>
+        <v>1.9177067669172934</v>
+      </c>
+      <c r="P31">
         <f t="shared" si="2"/>
-        <v>0.49312318354571877</v>
-      </c>
-      <c r="P31">
-        <f t="shared" si="1"/>
-        <v>13.840210149787616</v>
+        <v>-29.417706766917295</v>
       </c>
       <c r="R31" s="6">
-        <v>-21.218101945003355</v>
+        <v>-36.352470950102528</v>
       </c>
       <c r="S31" s="6">
-        <v>-20.759963112005366</v>
+        <v>-26.326110731373891</v>
       </c>
       <c r="T31" s="6">
-        <v>-11.694433266264253</v>
+        <v>-29.417706766917295</v>
       </c>
       <c r="U31" s="6">
         <v>2.0204795439302483</v>
@@ -3508,66 +3509,66 @@
         <v>13.840210149787616</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1981</v>
+        <v>1996</v>
       </c>
       <c r="B32">
-        <v>-22.6</v>
+        <v>-32.299999999999997</v>
       </c>
       <c r="C32">
-        <v>-16.7</v>
+        <v>-30.1</v>
       </c>
       <c r="D32">
-        <v>-5.7</v>
+        <v>-29.3</v>
       </c>
       <c r="E32">
-        <v>5.4</v>
+        <v>-18.899999999999999</v>
       </c>
       <c r="F32">
-        <v>12.3</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="G32">
-        <v>17.7</v>
+        <v>1.4</v>
       </c>
       <c r="H32">
-        <v>16.3</v>
+        <v>7.3</v>
       </c>
       <c r="I32">
-        <v>14.6</v>
+        <v>7.4</v>
       </c>
       <c r="J32">
-        <v>8.9</v>
+        <v>-1.9</v>
       </c>
       <c r="K32">
-        <v>-0.6</v>
+        <v>-11.8</v>
       </c>
       <c r="L32">
-        <v>-12.2</v>
+        <v>-25.3</v>
       </c>
       <c r="M32">
-        <v>-20.8</v>
+        <v>-33.6</v>
       </c>
       <c r="N32">
         <f t="shared" si="0"/>
-        <v>15.433333333333332</v>
+        <v>-29.3</v>
       </c>
       <c r="O32">
+        <f t="shared" si="1"/>
+        <v>1.9838345864661657</v>
+      </c>
+      <c r="P32">
         <f t="shared" si="2"/>
-        <v>0.5101274312541918</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="1"/>
-        <v>14.92320590207914</v>
+        <v>-31.283834586466167</v>
       </c>
       <c r="R32" s="6">
-        <v>-24.067002012072436</v>
+        <v>-33.595659603554338</v>
       </c>
       <c r="S32" s="6">
-        <v>-18.417203219315894</v>
+        <v>-31.471838687628164</v>
       </c>
       <c r="T32" s="6">
-        <v>-7.6597585513078474</v>
+        <v>-31.283834586466167</v>
       </c>
       <c r="U32" s="6">
         <v>4.0763581488933607</v>
@@ -3600,66 +3601,66 @@
         <v>14.92320590207914</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1982</v>
+        <v>1997</v>
       </c>
       <c r="B33">
-        <v>-16.2</v>
+        <v>-33.700000000000003</v>
       </c>
       <c r="C33">
-        <v>-15.3</v>
+        <v>-31</v>
       </c>
       <c r="D33">
-        <v>-8.3000000000000007</v>
+        <v>-29</v>
       </c>
       <c r="E33">
-        <v>6.1</v>
+        <v>-17.600000000000001</v>
       </c>
       <c r="F33">
-        <v>12</v>
+        <v>-7.3</v>
       </c>
       <c r="G33">
-        <v>16.8</v>
+        <v>5.9</v>
       </c>
       <c r="H33">
-        <v>16.5</v>
+        <v>11.9</v>
       </c>
       <c r="I33">
-        <v>13.8</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="J33">
-        <v>9.5</v>
+        <v>-0.5</v>
       </c>
       <c r="K33">
-        <v>4.2</v>
+        <v>-10.199999999999999</v>
       </c>
       <c r="L33">
-        <v>-7.9</v>
+        <v>-28.6</v>
       </c>
       <c r="M33">
-        <v>-17</v>
+        <v>-36</v>
       </c>
       <c r="N33">
         <f t="shared" si="0"/>
-        <v>15.1</v>
+        <v>-29</v>
       </c>
       <c r="O33">
+        <f t="shared" si="1"/>
+        <v>2.0499624060150379</v>
+      </c>
+      <c r="P33">
         <f t="shared" si="2"/>
-        <v>0.52713167896266488</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="1"/>
-        <v>14.572868321037335</v>
+        <v>-31.049962406015037</v>
       </c>
       <c r="R33" s="6">
-        <v>-17.715902079141514</v>
+        <v>-35.038848257006151</v>
       </c>
       <c r="S33" s="6">
-        <v>-17.074443326626426</v>
+        <v>-32.417566643882431</v>
       </c>
       <c r="T33" s="6">
-        <v>-10.325083836351443</v>
+        <v>-31.049962406015037</v>
       </c>
       <c r="U33" s="6">
         <v>4.7322367538564718</v>
@@ -3692,66 +3693,66 @@
         <v>14.572868321037335</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1983</v>
+        <v>1998</v>
       </c>
       <c r="B34">
-        <v>-18.600000000000001</v>
+        <v>-32.5</v>
       </c>
       <c r="C34">
-        <v>-14.7</v>
+        <v>-33.6</v>
       </c>
       <c r="D34">
-        <v>-3.3</v>
+        <v>-31.4</v>
       </c>
       <c r="E34">
-        <v>1.9</v>
+        <v>-21</v>
       </c>
       <c r="F34">
-        <v>9.1999999999999993</v>
+        <v>-9.6999999999999993</v>
       </c>
       <c r="G34">
-        <v>14.8</v>
+        <v>7</v>
       </c>
       <c r="H34">
-        <v>16.600000000000001</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I34">
-        <v>15.1</v>
+        <v>4.8</v>
       </c>
       <c r="J34">
-        <v>7.6</v>
+        <v>0.7</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>-14.2</v>
       </c>
       <c r="L34">
-        <v>-5.2</v>
+        <v>-23.7</v>
       </c>
       <c r="M34">
-        <v>-17.3</v>
+        <v>-35.299999999999997</v>
       </c>
       <c r="N34">
         <f t="shared" si="0"/>
-        <v>13.533333333333333</v>
+        <v>-31.4</v>
       </c>
       <c r="O34">
+        <f t="shared" si="1"/>
+        <v>2.11609022556391</v>
+      </c>
+      <c r="P34">
         <f t="shared" si="2"/>
-        <v>0.54413592667113797</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="1"/>
-        <v>12.989197406662194</v>
+        <v>-33.516090225563907</v>
       </c>
       <c r="R34" s="6">
-        <v>-20.164802146210597</v>
+        <v>-33.882036910457963</v>
       </c>
       <c r="S34" s="6">
-        <v>-16.531683433936955</v>
+        <v>-35.063294600136707</v>
       </c>
       <c r="T34" s="6">
-        <v>-5.3904091213950371</v>
+        <v>-33.516090225563907</v>
       </c>
       <c r="U34" s="6">
         <v>0.48811535881958434</v>
@@ -3784,66 +3785,66 @@
         <v>12.989197406662194</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1984</v>
+        <v>1999</v>
       </c>
       <c r="B35">
-        <v>-24.7</v>
+        <v>-35.4</v>
       </c>
       <c r="C35">
-        <v>-22.4</v>
+        <v>-38</v>
       </c>
       <c r="D35">
-        <v>-6.2</v>
+        <v>-32.6</v>
       </c>
       <c r="E35">
-        <v>0.6</v>
+        <v>-22.3</v>
       </c>
       <c r="F35">
-        <v>10.7</v>
+        <v>-5.5</v>
       </c>
       <c r="G35">
-        <v>14.5</v>
+        <v>7.5</v>
       </c>
       <c r="H35">
-        <v>15.1</v>
+        <v>7.8</v>
       </c>
       <c r="I35">
-        <v>13.7</v>
+        <v>7.2</v>
       </c>
       <c r="J35">
-        <v>8.8000000000000007</v>
+        <v>0.8</v>
       </c>
       <c r="K35">
-        <v>1.6</v>
+        <v>-10.199999999999999</v>
       </c>
       <c r="L35">
-        <v>-10.1</v>
+        <v>-27.9</v>
       </c>
       <c r="M35">
-        <v>-23</v>
+        <v>-30.1</v>
       </c>
       <c r="N35">
         <f t="shared" si="0"/>
-        <v>13.433333333333332</v>
+        <v>-32.6</v>
       </c>
       <c r="O35">
+        <f t="shared" si="1"/>
+        <v>2.1822180451127822</v>
+      </c>
+      <c r="P35">
         <f t="shared" si="2"/>
-        <v>0.56114017437961106</v>
-      </c>
-      <c r="P35">
-        <f t="shared" si="1"/>
-        <v>12.872193158953721</v>
+        <v>-34.782218045112785</v>
       </c>
       <c r="R35" s="6">
-        <v>-26.313702213279676</v>
+        <v>-36.825225563909775</v>
       </c>
       <c r="S35" s="6">
-        <v>-24.288923541247485</v>
+        <v>-39.509022556390981</v>
       </c>
       <c r="T35" s="6">
-        <v>-8.3557344064386321</v>
+        <v>-34.782218045112785</v>
       </c>
       <c r="U35" s="6">
         <v>-0.85600603621730353</v>
@@ -3876,66 +3877,66 @@
         <v>12.872193158953721</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1985</v>
+        <v>2000</v>
       </c>
       <c r="B36">
-        <v>-20</v>
+        <v>-35.4</v>
       </c>
       <c r="C36">
-        <v>-16.899999999999999</v>
+        <v>-30.3</v>
       </c>
       <c r="D36">
-        <v>-10.1</v>
+        <v>-27.2</v>
       </c>
       <c r="E36">
-        <v>5.6</v>
+        <v>-17.2</v>
       </c>
       <c r="F36">
-        <v>8.6999999999999993</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="G36">
-        <v>13.3</v>
+        <v>6.9</v>
       </c>
       <c r="H36">
-        <v>17</v>
+        <v>9.9</v>
       </c>
       <c r="I36">
-        <v>13.9</v>
+        <v>6.2</v>
       </c>
       <c r="J36">
-        <v>7.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K36">
-        <v>0.6</v>
+        <v>-10.6</v>
       </c>
       <c r="L36">
-        <v>-7.4</v>
+        <v>-25.8</v>
       </c>
       <c r="M36">
-        <v>-17.399999999999999</v>
+        <v>-28.7</v>
       </c>
       <c r="N36">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>-27.2</v>
       </c>
       <c r="O36">
+        <f t="shared" si="1"/>
+        <v>2.2483458646616543</v>
+      </c>
+      <c r="P36">
         <f t="shared" si="2"/>
-        <v>0.57814442208808414</v>
-      </c>
-      <c r="P36">
-        <f t="shared" si="1"/>
-        <v>12.421855577911916</v>
+        <v>-29.448345864661654</v>
       </c>
       <c r="R36" s="6">
-        <v>-21.662602280348757</v>
+        <v>-36.868414217361583</v>
       </c>
       <c r="S36" s="6">
-        <v>-18.846163648558012</v>
+        <v>-31.85475051264525</v>
       </c>
       <c r="T36" s="6">
-        <v>-12.321059691482226</v>
+        <v>-29.448345864661654</v>
       </c>
       <c r="U36" s="6">
         <v>4.0998725687458082</v>
@@ -3968,66 +3969,66 @@
         <v>12.421855577911916</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1986</v>
+        <v>2001</v>
       </c>
       <c r="B37">
-        <v>-18.5</v>
+        <v>-34.4</v>
       </c>
       <c r="C37">
-        <v>-17</v>
+        <v>-32.299999999999997</v>
       </c>
       <c r="D37">
-        <v>-5.4</v>
+        <v>-28.6</v>
       </c>
       <c r="E37">
-        <v>3.3</v>
+        <v>-16.8</v>
       </c>
       <c r="F37">
-        <v>12.2</v>
+        <v>-4.3</v>
       </c>
       <c r="G37">
-        <v>15.2</v>
+        <v>5</v>
       </c>
       <c r="H37">
-        <v>17.8</v>
+        <v>15.1</v>
       </c>
       <c r="I37">
-        <v>15.3</v>
+        <v>5.9</v>
       </c>
       <c r="J37">
-        <v>9.8000000000000007</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="K37">
-        <v>-0.2</v>
+        <v>-12.6</v>
       </c>
       <c r="L37">
-        <v>-17.100000000000001</v>
+        <v>-24</v>
       </c>
       <c r="M37">
-        <v>-15.6</v>
+        <v>-31.6</v>
       </c>
       <c r="N37">
         <f t="shared" si="0"/>
-        <v>15.066666666666668</v>
+        <v>-28.6</v>
       </c>
       <c r="O37">
+        <f t="shared" si="1"/>
+        <v>2.3144736842105265</v>
+      </c>
+      <c r="P37">
         <f t="shared" si="2"/>
-        <v>0.59514866979655712</v>
-      </c>
-      <c r="P37">
-        <f t="shared" si="1"/>
-        <v>14.47151799687011</v>
+        <v>-30.914473684210527</v>
       </c>
       <c r="R37" s="6">
-        <v>-20.211502347417841</v>
+        <v>-35.911602870813397</v>
       </c>
       <c r="S37" s="6">
-        <v>-19.003403755868543</v>
+        <v>-33.900478468899522</v>
       </c>
       <c r="T37" s="6">
-        <v>-7.6863849765258223</v>
+        <v>-30.914473684210527</v>
       </c>
       <c r="U37" s="6">
         <v>1.7557511737089202</v>
@@ -4060,66 +4061,66 @@
         <v>14.47151799687011</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1987</v>
+        <v>2002</v>
       </c>
       <c r="B38">
-        <v>-15.8</v>
+        <v>-35.9</v>
       </c>
       <c r="C38">
-        <v>-11.8</v>
+        <v>-39.299999999999997</v>
       </c>
       <c r="D38">
-        <v>-8.1</v>
+        <v>-23.7</v>
       </c>
       <c r="E38">
-        <v>2.9</v>
+        <v>-17.899999999999999</v>
       </c>
       <c r="F38">
-        <v>10.7</v>
+        <v>-6.9</v>
       </c>
       <c r="G38">
-        <v>13.2</v>
+        <v>7.1</v>
       </c>
       <c r="H38">
-        <v>17.899999999999999</v>
+        <v>10.3</v>
       </c>
       <c r="I38">
-        <v>15.6</v>
+        <v>10.9</v>
       </c>
       <c r="J38">
-        <v>9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K38">
-        <v>-2.7</v>
+        <v>-10.199999999999999</v>
       </c>
       <c r="L38">
-        <v>-13.1</v>
+        <v>-22.3</v>
       </c>
       <c r="M38">
-        <v>-13.9</v>
+        <v>-30.8</v>
       </c>
       <c r="N38">
         <f t="shared" si="0"/>
-        <v>13.933333333333332</v>
+        <v>-23.7</v>
       </c>
       <c r="O38">
+        <f t="shared" si="1"/>
+        <v>2.3806015037593986</v>
+      </c>
+      <c r="P38">
         <f t="shared" si="2"/>
-        <v>0.6121529175050302</v>
-      </c>
-      <c r="P38">
-        <f t="shared" si="1"/>
-        <v>13.321180415828302</v>
+        <v>-26.080601503759397</v>
       </c>
       <c r="R38" s="6">
-        <v>-17.560402414486923</v>
+        <v>-37.454791524265204</v>
       </c>
       <c r="S38" s="6">
-        <v>-13.860643863179074</v>
+        <v>-40.94620642515379</v>
       </c>
       <c r="T38" s="6">
-        <v>-10.451710261569417</v>
+        <v>-26.080601503759397</v>
       </c>
       <c r="U38" s="6">
         <v>1.3116297786720323</v>
@@ -4152,66 +4153,66 @@
         <v>13.321180415828302</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1988</v>
+        <v>2003</v>
       </c>
       <c r="B39">
-        <v>-18.3</v>
+        <v>-32.799999999999997</v>
       </c>
       <c r="C39">
-        <v>-19</v>
+        <v>-34.4</v>
       </c>
       <c r="D39">
-        <v>-7.2</v>
+        <v>-24.3</v>
       </c>
       <c r="E39">
-        <v>4.2</v>
+        <v>-16.7</v>
       </c>
       <c r="F39">
-        <v>8.9</v>
+        <v>-4.9000000000000004</v>
       </c>
       <c r="G39">
-        <v>14.4</v>
+        <v>3.5</v>
       </c>
       <c r="H39">
-        <v>16</v>
+        <v>11.8</v>
       </c>
       <c r="I39">
-        <v>14.4</v>
+        <v>8.6</v>
       </c>
       <c r="J39">
-        <v>9.9</v>
+        <v>3.3</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>-10.199999999999999</v>
       </c>
       <c r="L39">
-        <v>-7.2</v>
+        <v>-23.5</v>
       </c>
       <c r="M39">
-        <v>-15.5</v>
+        <v>-33.299999999999997</v>
       </c>
       <c r="N39">
         <f t="shared" si="0"/>
-        <v>13.1</v>
+        <v>-24.3</v>
       </c>
       <c r="O39">
+        <f t="shared" si="1"/>
+        <v>2.4467293233082708</v>
+      </c>
+      <c r="P39">
         <f t="shared" si="2"/>
-        <v>0.62915716521350329</v>
-      </c>
-      <c r="P39">
-        <f t="shared" si="1"/>
-        <v>12.470842834786497</v>
+        <v>-26.746729323308273</v>
       </c>
       <c r="R39" s="6">
-        <v>-20.109302481556004</v>
+        <v>-34.397980177717017</v>
       </c>
       <c r="S39" s="6">
-        <v>-21.117883970489604</v>
+        <v>-36.091934381408066</v>
       </c>
       <c r="T39" s="6">
-        <v>-9.6170355466130122</v>
+        <v>-26.746729323308273</v>
       </c>
       <c r="U39" s="6">
         <v>2.5675083836351447</v>
@@ -4244,66 +4245,66 @@
         <v>12.470842834786497</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1989</v>
+        <v>2004</v>
       </c>
       <c r="B40">
-        <v>-15.5</v>
+        <v>-32.4</v>
       </c>
       <c r="C40">
-        <v>-16.600000000000001</v>
+        <v>-34</v>
       </c>
       <c r="D40">
-        <v>-3.5</v>
+        <v>-26.9</v>
       </c>
       <c r="E40">
-        <v>3.3</v>
+        <v>-19.8</v>
       </c>
       <c r="F40">
-        <v>10.4</v>
+        <v>-7</v>
       </c>
       <c r="G40">
-        <v>14.3</v>
+        <v>4.2</v>
       </c>
       <c r="H40">
-        <v>18</v>
+        <v>9.5</v>
       </c>
       <c r="I40">
-        <v>15.9</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="J40">
-        <v>9.9</v>
+        <v>1.2</v>
       </c>
       <c r="K40">
-        <v>3.2</v>
+        <v>-14.7</v>
       </c>
       <c r="L40">
-        <v>-11.2</v>
+        <v>-25.7</v>
       </c>
       <c r="M40">
-        <v>-9.1</v>
+        <v>-31.6</v>
       </c>
       <c r="N40">
         <f t="shared" si="0"/>
-        <v>14.233333333333334</v>
+        <v>-26.9</v>
       </c>
       <c r="O40">
+        <f t="shared" si="1"/>
+        <v>2.5128571428571433</v>
+      </c>
+      <c r="P40">
         <f t="shared" si="2"/>
-        <v>0.64616141292197637</v>
-      </c>
-      <c r="P40">
-        <f t="shared" si="1"/>
-        <v>13.587171920411357</v>
+        <v>-29.412857142857142</v>
       </c>
       <c r="R40" s="6">
-        <v>-17.358202548625083</v>
+        <v>-34.041168831168832</v>
       </c>
       <c r="S40" s="6">
-        <v>-18.775124077800136</v>
+        <v>-35.737662337662336</v>
       </c>
       <c r="T40" s="6">
-        <v>-5.9823608316566066</v>
+        <v>-29.412857142857142</v>
       </c>
       <c r="U40" s="6">
         <v>1.6233869885982564</v>
@@ -4336,66 +4337,66 @@
         <v>13.587171920411357</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1990</v>
+        <v>2005</v>
       </c>
       <c r="B41">
-        <v>-18.3</v>
+        <v>-35</v>
       </c>
       <c r="C41">
-        <v>-13.4</v>
+        <v>-34.5</v>
       </c>
       <c r="D41">
-        <v>-1.9</v>
+        <v>-26.9</v>
       </c>
       <c r="E41">
-        <v>3.6</v>
+        <v>-15.7</v>
       </c>
       <c r="F41">
-        <v>12.6</v>
+        <v>-4</v>
       </c>
       <c r="G41">
-        <v>16.100000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="H41">
-        <v>16.600000000000001</v>
+        <v>12.2</v>
       </c>
       <c r="I41">
-        <v>13.6</v>
+        <v>8.4</v>
       </c>
       <c r="J41">
-        <v>9.5</v>
+        <v>2.1</v>
       </c>
       <c r="K41">
-        <v>2.7</v>
+        <v>-9</v>
       </c>
       <c r="L41">
-        <v>-8.6</v>
+        <v>-19.899999999999999</v>
       </c>
       <c r="M41">
-        <v>-13.5</v>
+        <v>-28.1</v>
       </c>
       <c r="N41">
         <f t="shared" si="0"/>
-        <v>15.100000000000001</v>
+        <v>-26.9</v>
       </c>
       <c r="O41">
+        <f t="shared" si="1"/>
+        <v>2.5789849624060155</v>
+      </c>
+      <c r="P41">
         <f t="shared" si="2"/>
-        <v>0.66316566063044935</v>
-      </c>
-      <c r="P41">
-        <f t="shared" si="1"/>
-        <v>14.436834339369552</v>
+        <v>-29.478984962406013</v>
       </c>
       <c r="R41" s="6">
-        <v>-20.207102615694165</v>
+        <v>-36.684357484620641</v>
       </c>
       <c r="S41" s="6">
-        <v>-15.632364185110664</v>
+        <v>-36.283390293916611</v>
       </c>
       <c r="T41" s="6">
-        <v>-4.4476861167002015</v>
+        <v>-29.478984962406013</v>
       </c>
       <c r="U41" s="6">
         <v>1.8792655935613687</v>
@@ -4428,66 +4429,66 @@
         <v>14.436834339369552</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>1991</v>
+        <v>2006</v>
       </c>
       <c r="B42">
-        <v>-15.6</v>
+        <v>-33.299999999999997</v>
       </c>
       <c r="C42">
-        <v>-14.5</v>
+        <v>-30.7</v>
       </c>
       <c r="D42">
-        <v>-7.3</v>
+        <v>-29.4</v>
       </c>
       <c r="E42">
-        <v>4.2</v>
+        <v>-24.2</v>
       </c>
       <c r="F42">
-        <v>9.6999999999999993</v>
+        <v>-4.5</v>
       </c>
       <c r="G42">
-        <v>15.3</v>
+        <v>7.1</v>
       </c>
       <c r="H42">
-        <v>17.8</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="I42">
-        <v>14.3</v>
+        <v>7.1</v>
       </c>
       <c r="J42">
-        <v>9.9</v>
+        <v>1.8</v>
       </c>
       <c r="K42">
-        <v>3.9</v>
+        <v>-10.5</v>
       </c>
       <c r="L42">
-        <v>-9.1</v>
+        <v>-19.5</v>
       </c>
       <c r="M42">
-        <v>-17</v>
+        <v>-31.1</v>
       </c>
       <c r="N42">
         <f t="shared" si="0"/>
-        <v>14.266666666666666</v>
+        <v>-29.4</v>
       </c>
       <c r="O42">
+        <f t="shared" si="1"/>
+        <v>2.6451127819548876</v>
+      </c>
+      <c r="P42">
         <f t="shared" si="2"/>
-        <v>0.68016990833892244</v>
-      </c>
-      <c r="P42">
-        <f t="shared" si="1"/>
-        <v>13.586496758327744</v>
+        <v>-32.045112781954884</v>
       </c>
       <c r="R42" s="6">
-        <v>-17.556002682763246</v>
+        <v>-35.027546138072452</v>
       </c>
       <c r="S42" s="6">
-        <v>-16.789604292421195</v>
+        <v>-32.529118250170882</v>
       </c>
       <c r="T42" s="6">
-        <v>-9.9130114017437965</v>
+        <v>-32.045112781954884</v>
       </c>
       <c r="U42" s="6">
         <v>2.4351441985244806</v>
@@ -4520,66 +4521,66 @@
         <v>13.586496758327744</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>1992</v>
+        <v>2007</v>
       </c>
       <c r="B43">
-        <v>-14.5</v>
+        <v>-33.4</v>
       </c>
       <c r="C43">
-        <v>-17.8</v>
+        <v>-33.6</v>
       </c>
       <c r="D43">
-        <v>-6.2</v>
+        <v>-26.2</v>
       </c>
       <c r="E43">
-        <v>4.5</v>
+        <v>-13.6</v>
       </c>
       <c r="F43">
-        <v>11.2</v>
+        <v>-1.5</v>
       </c>
       <c r="G43">
-        <v>14.2</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="H43">
-        <v>18.2</v>
+        <v>11.6</v>
       </c>
       <c r="I43">
-        <v>13.1</v>
+        <v>10.3</v>
       </c>
       <c r="J43">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="K43">
-        <v>-0.4</v>
+        <v>-9.6</v>
       </c>
       <c r="L43">
-        <v>-8.8000000000000007</v>
+        <v>-18.600000000000001</v>
       </c>
       <c r="M43">
-        <v>-13.8</v>
+        <v>-28.1</v>
       </c>
       <c r="N43">
         <f t="shared" si="0"/>
-        <v>14.533333333333331</v>
+        <v>-26.2</v>
       </c>
       <c r="O43">
+        <f t="shared" si="1"/>
+        <v>2.7112406015037598</v>
+      </c>
+      <c r="P43">
         <f t="shared" si="2"/>
-        <v>0.69717415604739552</v>
-      </c>
-      <c r="P43">
-        <f t="shared" si="1"/>
-        <v>13.836159177285936</v>
+        <v>-28.91124060150376</v>
       </c>
       <c r="R43" s="6">
-        <v>-16.504902749832326</v>
+        <v>-35.170734791524261</v>
       </c>
       <c r="S43" s="6">
-        <v>-20.146844399731723</v>
+        <v>-35.474846206425156</v>
       </c>
       <c r="T43" s="6">
-        <v>-8.8783366867873923</v>
+        <v>-28.91124060150376</v>
       </c>
       <c r="U43" s="6">
         <v>2.6910228034875923</v>
@@ -4612,66 +4613,66 @@
         <v>13.836159177285936</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>1993</v>
+        <v>2008</v>
       </c>
       <c r="B44">
-        <v>-17.3</v>
+        <v>-34.299999999999997</v>
       </c>
       <c r="C44">
-        <v>-10.9</v>
+        <v>-33.5</v>
       </c>
       <c r="D44">
-        <v>-4.0999999999999996</v>
+        <v>-23</v>
       </c>
       <c r="E44">
-        <v>3.2</v>
+        <v>-20.3</v>
       </c>
       <c r="F44">
-        <v>8.1999999999999993</v>
+        <v>-1.5</v>
       </c>
       <c r="G44">
-        <v>14.9</v>
+        <v>3.7</v>
       </c>
       <c r="H44">
-        <v>17.600000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="I44">
-        <v>15.3</v>
+        <v>12.9</v>
       </c>
       <c r="J44">
-        <v>8.6999999999999993</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="K44">
-        <v>0.8</v>
+        <v>-8.5</v>
       </c>
       <c r="L44">
-        <v>-18.899999999999999</v>
+        <v>-23.4</v>
       </c>
       <c r="M44">
-        <v>-21.9</v>
+        <v>-30.6</v>
       </c>
       <c r="N44">
         <f t="shared" si="0"/>
-        <v>13.566666666666668</v>
+        <v>-23</v>
       </c>
       <c r="O44">
+        <f t="shared" si="1"/>
+        <v>2.7773684210526319</v>
+      </c>
+      <c r="P44">
         <f t="shared" si="2"/>
-        <v>0.71417840375586861</v>
-      </c>
-      <c r="P44">
-        <f t="shared" si="1"/>
-        <v>12.8524882629108</v>
+        <v>-25.777368421052632</v>
       </c>
       <c r="R44" s="6">
-        <v>-19.35380281690141</v>
+        <v>-36.113923444976074</v>
       </c>
       <c r="S44" s="6">
-        <v>-13.304084507042255</v>
+        <v>-35.420574162679429</v>
       </c>
       <c r="T44" s="6">
-        <v>-6.8436619718309863</v>
+        <v>-25.777368421052632</v>
       </c>
       <c r="U44" s="6">
         <v>1.3469014084507047</v>
@@ -4704,66 +4705,66 @@
         <v>12.8524882629108</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>1994</v>
+        <v>2009</v>
       </c>
       <c r="B45">
-        <v>-19.399999999999999</v>
+        <v>-31.3</v>
       </c>
       <c r="C45">
-        <v>-16.899999999999999</v>
+        <v>-38.1</v>
       </c>
       <c r="D45">
-        <v>-6.2</v>
+        <v>-25.5</v>
       </c>
       <c r="E45">
-        <v>3.7</v>
+        <v>-16.2</v>
       </c>
       <c r="F45">
-        <v>10.8</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="G45">
-        <v>17.399999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="H45">
-        <v>16.899999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="I45">
-        <v>13.8</v>
+        <v>7.3</v>
       </c>
       <c r="J45">
-        <v>8.1</v>
+        <v>2.4</v>
       </c>
       <c r="K45">
-        <v>0.6</v>
+        <v>-8.9</v>
       </c>
       <c r="L45">
-        <v>-4.5</v>
+        <v>-24.7</v>
       </c>
       <c r="M45">
-        <v>-14.7</v>
+        <v>-28.2</v>
       </c>
       <c r="N45">
         <f t="shared" si="0"/>
-        <v>15.033333333333331</v>
+        <v>-25.5</v>
       </c>
       <c r="O45">
+        <f t="shared" si="1"/>
+        <v>2.8434962406015041</v>
+      </c>
+      <c r="P45">
         <f t="shared" si="2"/>
-        <v>0.73118265146434169</v>
-      </c>
-      <c r="P45">
-        <f t="shared" si="1"/>
-        <v>14.302150681868989</v>
+        <v>-28.343496240601503</v>
       </c>
       <c r="R45" s="6">
-        <v>-21.502702883970489</v>
+        <v>-33.157112098427888</v>
       </c>
       <c r="S45" s="6">
-        <v>-19.361324614352782</v>
+        <v>-40.066302118933699</v>
       </c>
       <c r="T45" s="6">
-        <v>-9.0089872568745815</v>
+        <v>-28.343496240601503</v>
       </c>
       <c r="U45" s="6">
         <v>1.8027800134138168</v>
@@ -4796,66 +4797,66 @@
         <v>14.302150681868989</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>1995</v>
+        <v>2010</v>
       </c>
       <c r="B46">
-        <v>-20.9</v>
+        <v>-32.700000000000003</v>
       </c>
       <c r="C46">
-        <v>-15.8</v>
+        <v>-32</v>
       </c>
       <c r="D46">
-        <v>-4.0999999999999996</v>
+        <v>-28.5</v>
       </c>
       <c r="E46">
-        <v>4.4000000000000004</v>
+        <v>-17.5</v>
       </c>
       <c r="F46">
-        <v>9.6</v>
+        <v>-3.5</v>
       </c>
       <c r="G46">
-        <v>13.4</v>
+        <v>6.3</v>
       </c>
       <c r="H46">
-        <v>17.7</v>
+        <v>15.5</v>
       </c>
       <c r="I46">
-        <v>15.1</v>
+        <v>8.4</v>
       </c>
       <c r="J46">
-        <v>9.5</v>
+        <v>1.8</v>
       </c>
       <c r="K46">
-        <v>2.7</v>
+        <v>-8.9</v>
       </c>
       <c r="L46">
-        <v>-6.8</v>
+        <v>-20.399999999999999</v>
       </c>
       <c r="M46">
-        <v>-13.1</v>
+        <v>-28.9</v>
       </c>
       <c r="N46">
         <f t="shared" si="0"/>
-        <v>13.566666666666668</v>
+        <v>-28.5</v>
       </c>
       <c r="O46">
+        <f t="shared" si="1"/>
+        <v>2.9096240601503762</v>
+      </c>
+      <c r="P46">
         <f t="shared" si="2"/>
-        <v>0.74818689917281467</v>
-      </c>
-      <c r="P46">
-        <f t="shared" si="1"/>
-        <v>12.818479767493853</v>
+        <v>-31.409624060150378</v>
       </c>
       <c r="R46" s="6">
-        <v>-23.05160295103957</v>
+        <v>-34.600300751879701</v>
       </c>
       <c r="S46" s="6">
-        <v>-18.318564721663314</v>
+        <v>-34.012030075187972</v>
       </c>
       <c r="T46" s="6">
-        <v>-6.9743125419181755</v>
+        <v>-31.409624060150378</v>
       </c>
       <c r="U46" s="6">
         <v>2.458658618376929</v>
@@ -4888,66 +4889,66 @@
         <v>12.818479767493853</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>1996</v>
+        <v>2011</v>
       </c>
       <c r="B47">
-        <v>-19.5</v>
+        <v>-30.9</v>
       </c>
       <c r="C47">
-        <v>-16.399999999999999</v>
+        <v>-33.6</v>
       </c>
       <c r="D47">
-        <v>-7.4</v>
+        <v>-20.8</v>
       </c>
       <c r="E47">
-        <v>2.2000000000000002</v>
+        <v>-11.7</v>
       </c>
       <c r="F47">
-        <v>10.8</v>
+        <v>-7.6</v>
       </c>
       <c r="G47">
-        <v>15.9</v>
+        <v>7.8</v>
       </c>
       <c r="H47">
-        <v>18</v>
+        <v>12.9</v>
       </c>
       <c r="I47">
-        <v>14.4</v>
+        <v>7.1</v>
       </c>
       <c r="J47">
-        <v>8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K47">
-        <v>-0.7</v>
+        <v>-10.3</v>
       </c>
       <c r="L47">
-        <v>-8.3000000000000007</v>
+        <v>-27.6</v>
       </c>
       <c r="M47">
-        <v>-17.100000000000001</v>
+        <v>-31.6</v>
       </c>
       <c r="N47">
         <f t="shared" si="0"/>
-        <v>14.9</v>
+        <v>-20.8</v>
       </c>
       <c r="O47">
+        <f t="shared" si="1"/>
+        <v>2.9757518796992484</v>
+      </c>
+      <c r="P47">
         <f t="shared" si="2"/>
-        <v>0.76519114688128775</v>
-      </c>
-      <c r="P47">
-        <f t="shared" si="1"/>
-        <v>14.134808853118713</v>
+        <v>-23.77575187969925</v>
       </c>
       <c r="R47" s="6">
-        <v>-21.700503018108652</v>
+        <v>-32.843489405331511</v>
       </c>
       <c r="S47" s="6">
-        <v>-18.975804828973843</v>
+        <v>-35.657758031442242</v>
       </c>
       <c r="T47" s="6">
-        <v>-10.339637826961772</v>
+        <v>-23.77575187969925</v>
       </c>
       <c r="U47" s="6">
         <v>0.21453722334004088</v>
@@ -4980,66 +4981,66 @@
         <v>14.134808853118713</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>1997</v>
+        <v>2012</v>
       </c>
       <c r="B48">
-        <v>-15.8</v>
+        <v>-30.7</v>
       </c>
       <c r="C48">
-        <v>-13</v>
+        <v>-32.4</v>
       </c>
       <c r="D48">
-        <v>-1.1000000000000001</v>
+        <v>-28.9</v>
       </c>
       <c r="E48">
-        <v>8.9</v>
+        <v>-17.100000000000001</v>
       </c>
       <c r="F48">
-        <v>13.2</v>
+        <v>-1.8</v>
       </c>
       <c r="G48">
-        <v>16</v>
+        <v>7.4</v>
       </c>
       <c r="H48">
-        <v>16.600000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I48">
-        <v>14.5</v>
+        <v>7.7</v>
       </c>
       <c r="J48">
-        <v>9.8000000000000007</v>
+        <v>1.3</v>
       </c>
       <c r="K48">
-        <v>2</v>
+        <v>-9</v>
       </c>
       <c r="L48">
-        <v>-12.6</v>
+        <v>-20.9</v>
       </c>
       <c r="M48">
-        <v>-17.399999999999999</v>
+        <v>-29.3</v>
       </c>
       <c r="N48">
         <f t="shared" si="0"/>
-        <v>15.266666666666666</v>
+        <v>-28.9</v>
       </c>
       <c r="O48">
+        <f t="shared" si="1"/>
+        <v>3.0418796992481205</v>
+      </c>
+      <c r="P48">
         <f t="shared" si="2"/>
-        <v>0.78219539458976084</v>
-      </c>
-      <c r="P48">
-        <f t="shared" si="1"/>
-        <v>14.484471272076904</v>
+        <v>-31.941879699248119</v>
       </c>
       <c r="R48" s="6">
-        <v>-18.049403085177733</v>
+        <v>-32.686678058783322</v>
       </c>
       <c r="S48" s="6">
-        <v>-15.633044936284373</v>
+        <v>-34.503485987696514</v>
       </c>
       <c r="T48" s="6">
-        <v>-4.1049631120053665</v>
+        <v>-31.941879699248119</v>
       </c>
       <c r="U48" s="6">
         <v>6.8704158283031536</v>
@@ -5072,66 +5073,66 @@
         <v>14.484471272076904</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>1998</v>
+        <v>2013</v>
       </c>
       <c r="B49">
-        <v>-22.9</v>
+        <v>-32.5</v>
       </c>
       <c r="C49">
-        <v>-12.3</v>
+        <v>-41.7</v>
       </c>
       <c r="D49">
-        <v>-5.6</v>
+        <v>-30</v>
       </c>
       <c r="E49">
-        <v>3.5</v>
+        <v>-12.5</v>
       </c>
       <c r="F49">
-        <v>11.3</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="G49">
-        <v>16.5</v>
+        <v>6.7</v>
       </c>
       <c r="H49">
-        <v>18.3</v>
+        <v>10.7</v>
       </c>
       <c r="I49">
-        <v>17.7</v>
+        <v>7.1</v>
       </c>
       <c r="J49">
-        <v>10.7</v>
+        <v>-0.2</v>
       </c>
       <c r="K49">
-        <v>3.9</v>
+        <v>-10.7</v>
       </c>
       <c r="L49">
-        <v>-7.7</v>
+        <v>-25</v>
       </c>
       <c r="M49">
-        <v>-14</v>
+        <v>-28.5</v>
       </c>
       <c r="N49">
         <f t="shared" si="0"/>
-        <v>15.366666666666667</v>
+        <v>-30</v>
       </c>
       <c r="O49">
+        <f t="shared" si="1"/>
+        <v>3.1080075187969927</v>
+      </c>
+      <c r="P49">
         <f t="shared" si="2"/>
-        <v>0.79919964229823393</v>
-      </c>
-      <c r="P49">
-        <f t="shared" si="1"/>
-        <v>14.567467024368433</v>
+        <v>-33.108007518796995</v>
       </c>
       <c r="R49" s="6">
-        <v>-25.198303152246812</v>
+        <v>-34.529866712235133</v>
       </c>
       <c r="S49" s="6">
-        <v>-14.990285043594904</v>
+        <v>-43.849213943950787</v>
       </c>
       <c r="T49" s="6">
-        <v>-8.6702883970489601</v>
+        <v>-33.108007518796995</v>
       </c>
       <c r="U49" s="6">
         <v>1.4262944332662646</v>
@@ -5164,66 +5165,66 @@
         <v>14.567467024368433</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1999</v>
+        <v>2014</v>
       </c>
       <c r="B50">
-        <v>-16.7</v>
+        <v>-33.4</v>
       </c>
       <c r="C50">
-        <v>-12.4</v>
+        <v>-29.9</v>
       </c>
       <c r="D50">
-        <v>-9.9</v>
+        <v>-25.3</v>
       </c>
       <c r="E50">
-        <v>5.4</v>
+        <v>-12.1</v>
       </c>
       <c r="F50">
-        <v>12.7</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="G50">
-        <v>15.2</v>
+        <v>6.1</v>
       </c>
       <c r="H50">
-        <v>18.899999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="I50">
-        <v>15.3</v>
+        <v>12.6</v>
       </c>
       <c r="J50">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="K50">
-        <v>2.6</v>
+        <v>-7.4</v>
       </c>
       <c r="L50">
-        <v>-9</v>
+        <v>-24.3</v>
       </c>
       <c r="M50">
-        <v>-12.3</v>
+        <v>-32.299999999999997</v>
       </c>
       <c r="N50">
         <f t="shared" si="0"/>
-        <v>15.6</v>
+        <v>-25.3</v>
       </c>
       <c r="O50">
+        <f t="shared" si="1"/>
+        <v>3.1741353383458648</v>
+      </c>
+      <c r="P50">
         <f t="shared" si="2"/>
-        <v>0.81620389000670701</v>
-      </c>
-      <c r="P50">
-        <f t="shared" si="1"/>
-        <v>14.783796109993293</v>
+        <v>-28.474135338345867</v>
       </c>
       <c r="R50" s="6">
-        <v>-19.047203219315893</v>
+        <v>-35.473055365686946</v>
       </c>
       <c r="S50" s="6">
-        <v>-15.147525150905434</v>
+        <v>-32.094941900205058</v>
       </c>
       <c r="T50" s="6">
-        <v>-13.035613682092556</v>
+        <v>-28.474135338345867</v>
       </c>
       <c r="U50" s="6">
         <v>3.2821730382293772</v>
@@ -5256,66 +5257,66 @@
         <v>14.783796109993293</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>2000</v>
+        <v>2015</v>
       </c>
       <c r="B51">
-        <v>-21.4</v>
+        <v>-32.299999999999997</v>
       </c>
       <c r="C51">
-        <v>-14.3</v>
+        <v>-31.1</v>
       </c>
       <c r="D51">
-        <v>-2.4</v>
+        <v>-23.3</v>
       </c>
       <c r="E51">
-        <v>6.4</v>
+        <v>-18.8</v>
       </c>
       <c r="F51">
-        <v>11.4</v>
+        <v>-6.9</v>
       </c>
       <c r="G51">
-        <v>15.9</v>
+        <v>7.8</v>
       </c>
       <c r="H51">
-        <v>16.600000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="I51">
-        <v>15.8</v>
+        <v>6.5</v>
       </c>
       <c r="J51">
-        <v>10.7</v>
+        <v>2.5</v>
       </c>
       <c r="K51">
-        <v>-0.7</v>
+        <v>-11.1</v>
       </c>
       <c r="L51">
-        <v>-12</v>
+        <v>-21.5</v>
       </c>
       <c r="M51">
-        <v>-11.2</v>
+        <v>-33.700000000000003</v>
       </c>
       <c r="N51">
         <f t="shared" si="0"/>
-        <v>14.633333333333335</v>
+        <v>-23.3</v>
       </c>
       <c r="O51">
+        <f t="shared" si="1"/>
+        <v>3.2402631578947374</v>
+      </c>
+      <c r="P51">
         <f t="shared" si="2"/>
-        <v>0.83320813771517999</v>
-      </c>
-      <c r="P51">
-        <f t="shared" si="1"/>
-        <v>13.800125195618154</v>
+        <v>-26.540263157894739</v>
       </c>
       <c r="R51" s="6">
-        <v>-23.796103286384977</v>
+        <v>-34.416244019138752</v>
       </c>
       <c r="S51" s="6">
-        <v>-17.104765258215963</v>
+        <v>-33.340669856459328</v>
       </c>
       <c r="T51" s="6">
-        <v>-5.6009389671361509</v>
+        <v>-26.540263157894739</v>
       </c>
       <c r="U51" s="6">
         <v>4.2380516431924891</v>
@@ -5348,66 +5349,66 @@
         <v>13.800125195618154</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>2001</v>
+        <v>2016</v>
       </c>
       <c r="B52">
-        <v>-18.2</v>
+        <v>-29</v>
       </c>
       <c r="C52">
-        <v>-13.4</v>
+        <v>-32.6</v>
       </c>
       <c r="D52">
-        <v>-3.5</v>
+        <v>-26.1</v>
       </c>
       <c r="E52">
-        <v>3.5</v>
+        <v>-17.8</v>
       </c>
       <c r="F52">
-        <v>13</v>
+        <v>-4.2</v>
       </c>
       <c r="G52">
-        <v>16.8</v>
+        <v>8.9</v>
       </c>
       <c r="H52">
-        <v>15.6</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I52">
-        <v>16.7</v>
+        <v>9</v>
       </c>
       <c r="J52">
-        <v>9.3000000000000007</v>
+        <v>3.6</v>
       </c>
       <c r="K52">
-        <v>2.8</v>
+        <v>-5.3</v>
       </c>
       <c r="L52">
-        <v>-3.9</v>
+        <v>-18.399999999999999</v>
       </c>
       <c r="M52">
-        <v>-19.7</v>
+        <v>-30</v>
       </c>
       <c r="N52">
         <f t="shared" si="0"/>
-        <v>15.133333333333333</v>
+        <v>-26.1</v>
       </c>
       <c r="O52">
+        <f t="shared" si="1"/>
+        <v>3.3063909774436095</v>
+      </c>
+      <c r="P52">
         <f t="shared" si="2"/>
-        <v>0.85021238542365307</v>
-      </c>
-      <c r="P52">
-        <f t="shared" si="1"/>
-        <v>14.28312094790968</v>
+        <v>-29.406390977443611</v>
       </c>
       <c r="R52" s="6">
-        <v>-20.645003353454058</v>
+        <v>-31.159432672590569</v>
       </c>
       <c r="S52" s="6">
-        <v>-16.262005365526491</v>
+        <v>-34.886397812713604</v>
       </c>
       <c r="T52" s="6">
-        <v>-6.766264252179746</v>
+        <v>-29.406390977443611</v>
       </c>
       <c r="U52" s="6">
         <v>1.2939302481556005</v>
@@ -5440,66 +5441,66 @@
         <v>14.28312094790968</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>2002</v>
+        <v>2017</v>
       </c>
       <c r="B53">
-        <v>-10.199999999999999</v>
+        <v>-33.4</v>
       </c>
       <c r="C53">
-        <v>-7.5</v>
+        <v>-30.9</v>
       </c>
       <c r="D53">
-        <v>-1.6</v>
+        <v>-18.7</v>
       </c>
       <c r="E53">
-        <v>3.5</v>
+        <v>-10.9</v>
       </c>
       <c r="F53">
-        <v>11.3</v>
+        <v>-6.1</v>
       </c>
       <c r="G53">
-        <v>15.6</v>
+        <v>3.7</v>
       </c>
       <c r="H53">
-        <v>17</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I53">
-        <v>16.2</v>
+        <v>10.1</v>
       </c>
       <c r="J53">
-        <v>9.4</v>
+        <v>1.5</v>
       </c>
       <c r="K53">
-        <v>1.7</v>
+        <v>-11</v>
       </c>
       <c r="L53">
-        <v>-4.5</v>
+        <v>-17.399999999999999</v>
       </c>
       <c r="M53">
-        <v>-16.2</v>
+        <v>-25.7</v>
       </c>
       <c r="N53">
         <f t="shared" si="0"/>
-        <v>14.633333333333333</v>
+        <v>-18.7</v>
       </c>
       <c r="O53">
+        <f t="shared" si="1"/>
+        <v>3.3725187969924817</v>
+      </c>
+      <c r="P53">
         <f t="shared" si="2"/>
-        <v>0.86721663313212616</v>
-      </c>
-      <c r="P53">
-        <f t="shared" si="1"/>
-        <v>13.766116700201207</v>
+        <v>-22.07251879699248</v>
       </c>
       <c r="R53" s="6">
-        <v>-12.693903420523139</v>
+        <v>-35.602621326042375</v>
       </c>
       <c r="S53" s="6">
-        <v>-10.419245472837023</v>
+        <v>-33.232125768967876</v>
       </c>
       <c r="T53" s="6">
-        <v>-4.9315895372233403</v>
+        <v>-22.07251879699248</v>
       </c>
       <c r="U53" s="6">
         <v>1.2498088531187128</v>
@@ -5532,66 +5533,66 @@
         <v>13.766116700201207</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>2003</v>
+        <v>2018</v>
       </c>
       <c r="B54">
-        <v>-14.2</v>
+        <v>-32.5</v>
       </c>
       <c r="C54">
-        <v>-14.6</v>
+        <v>-26.4</v>
       </c>
       <c r="D54">
+        <v>-30.9</v>
+      </c>
+      <c r="E54">
+        <v>-13.6</v>
+      </c>
+      <c r="F54">
+        <v>-7.4</v>
+      </c>
+      <c r="G54">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H54">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I54">
+        <v>8.5</v>
+      </c>
+      <c r="J54">
+        <v>3.7</v>
+      </c>
+      <c r="K54">
         <v>-6.2</v>
       </c>
-      <c r="E54">
-        <v>2</v>
-      </c>
-      <c r="F54">
-        <v>11.8</v>
-      </c>
-      <c r="G54">
-        <v>16.7</v>
-      </c>
-      <c r="H54">
-        <v>16.2</v>
-      </c>
-      <c r="I54">
-        <v>14.4</v>
-      </c>
-      <c r="J54">
-        <v>10.7</v>
-      </c>
-      <c r="K54">
-        <v>1.5</v>
-      </c>
       <c r="L54">
-        <v>-9.8000000000000007</v>
+        <v>-22.5</v>
       </c>
       <c r="M54">
-        <v>-14.9</v>
+        <v>-32.9</v>
       </c>
       <c r="N54">
         <f t="shared" si="0"/>
-        <v>14.9</v>
+        <v>-30.9</v>
       </c>
       <c r="O54">
+        <f t="shared" si="1"/>
+        <v>3.4386466165413538</v>
+      </c>
+      <c r="P54">
         <f t="shared" si="2"/>
-        <v>0.88422088084059924</v>
-      </c>
-      <c r="P54">
-        <f t="shared" si="1"/>
-        <v>14.015779119159401</v>
+        <v>-34.338646616541354</v>
       </c>
       <c r="R54" s="6">
-        <v>-16.742803487592219</v>
+        <v>-34.74580997949419</v>
       </c>
       <c r="S54" s="6">
-        <v>-17.576485580147551</v>
+        <v>-28.777853725222144</v>
       </c>
       <c r="T54" s="6">
-        <v>-9.5969148222669354</v>
+        <v>-34.338646616541354</v>
       </c>
       <c r="U54" s="6">
         <v>-0.29431254191817535</v>
@@ -5624,66 +5625,66 @@
         <v>14.015779119159401</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>2004</v>
+        <v>2019</v>
       </c>
       <c r="B55">
-        <v>-21.1</v>
+        <v>-34.700000000000003</v>
       </c>
       <c r="C55">
-        <v>-9.5</v>
+        <v>-34</v>
       </c>
       <c r="D55">
-        <v>-5.5</v>
+        <v>-24.6</v>
       </c>
       <c r="E55">
-        <v>4.5999999999999996</v>
+        <v>-10.3</v>
       </c>
       <c r="F55">
-        <v>12.9</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="G55">
-        <v>15.9</v>
+        <v>12.4</v>
       </c>
       <c r="H55">
-        <v>17.2</v>
+        <v>8.6</v>
       </c>
       <c r="I55">
-        <v>15</v>
+        <v>10.4</v>
       </c>
       <c r="J55">
-        <v>8.8000000000000007</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="K55">
-        <v>3</v>
+        <v>-10.8</v>
       </c>
       <c r="L55">
-        <v>-8.4</v>
+        <v>-22</v>
       </c>
       <c r="M55">
-        <v>-16.899999999999999</v>
+        <v>-31.6</v>
       </c>
       <c r="N55">
         <f t="shared" si="0"/>
-        <v>15.333333333333334</v>
+        <v>-24.6</v>
       </c>
       <c r="O55">
+        <f t="shared" si="1"/>
+        <v>3.504774436090226</v>
+      </c>
+      <c r="P55">
         <f t="shared" si="2"/>
-        <v>0.90122512854907222</v>
-      </c>
-      <c r="P55">
-        <f t="shared" si="1"/>
-        <v>14.432108204784262</v>
+        <v>-28.104774436090228</v>
       </c>
       <c r="R55" s="6">
-        <v>-23.691703554661302</v>
+        <v>-36.988998632946007</v>
       </c>
       <c r="S55" s="6">
-        <v>-12.533725687458082</v>
+        <v>-36.423581681476421</v>
       </c>
       <c r="T55" s="6">
-        <v>-8.9622401073105316</v>
+        <v>-28.104774436090228</v>
       </c>
       <c r="U55" s="6">
         <v>2.2615660630449366</v>
@@ -5716,66 +5717,66 @@
         <v>14.432108204784262</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>2005</v>
+        <v>2020</v>
       </c>
       <c r="B56">
-        <v>-21.9</v>
+        <v>-34.4</v>
       </c>
       <c r="C56">
-        <v>-21.7</v>
+        <v>-29.3</v>
       </c>
       <c r="D56">
-        <v>-2.2999999999999998</v>
+        <v>-24.4</v>
       </c>
       <c r="E56">
-        <v>4.8</v>
+        <v>-14.1</v>
       </c>
       <c r="F56">
-        <v>10.1</v>
+        <v>-0.2</v>
       </c>
       <c r="G56">
-        <v>15.8</v>
+        <v>14.3</v>
       </c>
       <c r="H56">
-        <v>18.3</v>
+        <v>11.8</v>
       </c>
       <c r="I56">
-        <v>15.4</v>
+        <v>6</v>
       </c>
       <c r="J56">
-        <v>9.4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="K56">
-        <v>3.2</v>
+        <v>-6</v>
       </c>
       <c r="L56">
-        <v>-6.3</v>
+        <v>-19.5</v>
       </c>
       <c r="M56">
-        <v>-19.899999999999999</v>
+        <v>-28.3</v>
       </c>
       <c r="N56">
         <f t="shared" si="0"/>
-        <v>14.733333333333334</v>
+        <v>-24.4</v>
       </c>
       <c r="O56">
+        <f t="shared" si="1"/>
+        <v>3.5709022556390981</v>
+      </c>
+      <c r="P56">
         <f t="shared" si="2"/>
-        <v>0.9182293762575453</v>
-      </c>
-      <c r="P56">
-        <f t="shared" si="1"/>
-        <v>13.815103957075788</v>
+        <v>-27.970902255639096</v>
       </c>
       <c r="R56" s="6">
-        <v>-24.54060362173038</v>
+        <v>-36.73218728639781</v>
       </c>
       <c r="S56" s="6">
-        <v>-24.79096579476861</v>
+        <v>-31.769309637730693</v>
       </c>
       <c r="T56" s="6">
-        <v>-5.8275653923541251</v>
+        <v>-27.970902255639096</v>
       </c>
       <c r="U56" s="6">
         <v>2.4174446680080486</v>
@@ -5808,66 +5809,66 @@
         <v>13.815103957075788</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>2006</v>
+        <v>2021</v>
       </c>
       <c r="B57">
-        <v>-17.2</v>
+        <v>-34.6</v>
       </c>
       <c r="C57">
-        <v>-14.6</v>
+        <v>-28.8</v>
       </c>
       <c r="D57">
-        <v>-2.2999999999999998</v>
+        <v>-26.4</v>
       </c>
       <c r="E57">
-        <v>4.5</v>
+        <v>-16</v>
       </c>
       <c r="F57">
-        <v>9.3000000000000007</v>
+        <v>-0.5</v>
       </c>
       <c r="G57">
-        <v>16.3</v>
+        <v>12</v>
       </c>
       <c r="H57">
-        <v>16.899999999999999</v>
+        <v>10.3</v>
       </c>
       <c r="I57">
-        <v>13.6</v>
+        <v>8.4</v>
       </c>
       <c r="J57">
-        <v>9.6999999999999993</v>
+        <v>1.6</v>
       </c>
       <c r="K57">
-        <v>3.2</v>
+        <v>-11.9</v>
       </c>
       <c r="L57">
-        <v>-6.5</v>
+        <v>-21.9</v>
       </c>
       <c r="M57">
-        <v>-12.3</v>
+        <v>-34.5</v>
       </c>
       <c r="N57">
         <f t="shared" si="0"/>
-        <v>14.166666666666666</v>
+        <v>-26.4</v>
       </c>
       <c r="O57">
+        <f t="shared" si="1"/>
+        <v>3.6370300751879703</v>
+      </c>
+      <c r="P57">
         <f t="shared" si="2"/>
-        <v>0.93523362396601839</v>
-      </c>
-      <c r="P57">
-        <f t="shared" si="1"/>
-        <v>13.231433042700647</v>
+        <v>-30.037030075187968</v>
       </c>
       <c r="R57" s="6">
-        <v>-19.889503688799461</v>
+        <v>-36.975375939849627</v>
       </c>
       <c r="S57" s="6">
-        <v>-17.748205902079143</v>
+        <v>-31.315037593984965</v>
       </c>
       <c r="T57" s="6">
-        <v>-5.8928906773977197</v>
+        <v>-30.037030075187968</v>
       </c>
       <c r="U57" s="6">
         <v>2.0733232729711606</v>
@@ -5898,1386 +5899,6 @@
       </c>
       <c r="AD57" s="6">
         <v>13.231433042700647</v>
-      </c>
-    </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>2007</v>
-      </c>
-      <c r="B58">
-        <v>-16.2</v>
-      </c>
-      <c r="C58">
-        <v>-8.9</v>
-      </c>
-      <c r="D58">
-        <v>-4.5999999999999996</v>
-      </c>
-      <c r="E58">
-        <v>7.2</v>
-      </c>
-      <c r="F58">
-        <v>11</v>
-      </c>
-      <c r="G58">
-        <v>15.4</v>
-      </c>
-      <c r="H58">
-        <v>18.8</v>
-      </c>
-      <c r="I58">
-        <v>15</v>
-      </c>
-      <c r="J58">
-        <v>9.4</v>
-      </c>
-      <c r="K58">
-        <v>0.6</v>
-      </c>
-      <c r="L58">
-        <v>-8.6999999999999993</v>
-      </c>
-      <c r="M58">
-        <v>-15.2</v>
-      </c>
-      <c r="N58">
-        <f t="shared" si="0"/>
-        <v>15.066666666666668</v>
-      </c>
-      <c r="O58">
-        <f t="shared" si="2"/>
-        <v>0.95223787167449148</v>
-      </c>
-      <c r="P58">
-        <f t="shared" si="1"/>
-        <v>14.114428794992177</v>
-      </c>
-      <c r="R58" s="6">
-        <v>-18.938403755868542</v>
-      </c>
-      <c r="S58" s="6">
-        <v>-12.105446009389672</v>
-      </c>
-      <c r="T58" s="6">
-        <v>-8.2582159624413158</v>
-      </c>
-      <c r="U58" s="6">
-        <v>4.7292018779342726</v>
-      </c>
-      <c r="V58" s="6">
-        <v>10.32018779342723</v>
-      </c>
-      <c r="W58" s="6">
-        <v>14.376525821596244</v>
-      </c>
-      <c r="X58" s="6">
-        <v>17.646572769953053</v>
-      </c>
-      <c r="Y58" s="6">
-        <v>13.508732394366199</v>
-      </c>
-      <c r="Z58" s="6">
-        <v>9.3868544600938968</v>
-      </c>
-      <c r="AA58" s="6">
-        <v>-0.34065727699530524</v>
-      </c>
-      <c r="AB58" s="6">
-        <v>-10.547887323943662</v>
-      </c>
-      <c r="AC58" s="6">
-        <v>-17.23586854460094</v>
-      </c>
-      <c r="AD58" s="6">
-        <v>14.114428794992177</v>
-      </c>
-    </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>2008</v>
-      </c>
-      <c r="B59">
-        <v>-25.3</v>
-      </c>
-      <c r="C59">
-        <v>-17.3</v>
-      </c>
-      <c r="D59">
-        <v>-0.7</v>
-      </c>
-      <c r="E59">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F59">
-        <v>12.4</v>
-      </c>
-      <c r="G59">
-        <v>16.3</v>
-      </c>
-      <c r="H59">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="I59">
-        <v>15.5</v>
-      </c>
-      <c r="J59">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="K59">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="L59">
-        <v>-5.8</v>
-      </c>
-      <c r="M59">
-        <v>-17.899999999999999</v>
-      </c>
-      <c r="N59">
-        <f t="shared" si="0"/>
-        <v>15.600000000000001</v>
-      </c>
-      <c r="O59">
-        <f t="shared" si="2"/>
-        <v>0.96924211938296456</v>
-      </c>
-      <c r="P59">
-        <f t="shared" si="1"/>
-        <v>14.630757880617036</v>
-      </c>
-      <c r="R59" s="6">
-        <v>-28.087303822937628</v>
-      </c>
-      <c r="S59" s="6">
-        <v>-20.562686116700203</v>
-      </c>
-      <c r="T59" s="6">
-        <v>-4.4235412474849101</v>
-      </c>
-      <c r="U59" s="6">
-        <v>1.8850804828973851</v>
-      </c>
-      <c r="V59" s="6">
-        <v>11.70804828973843</v>
-      </c>
-      <c r="W59" s="6">
-        <v>15.258249496981893</v>
-      </c>
-      <c r="X59" s="6">
-        <v>16.925975855130787</v>
-      </c>
-      <c r="Y59" s="6">
-        <v>13.982102615694165</v>
-      </c>
-      <c r="Z59" s="6">
-        <v>8.1866197183098581</v>
-      </c>
-      <c r="AA59" s="6">
-        <v>1.3425452716297785</v>
-      </c>
-      <c r="AB59" s="6">
-        <v>-7.6808853118712275</v>
-      </c>
-      <c r="AC59" s="6">
-        <v>-19.972223340040241</v>
-      </c>
-      <c r="AD59" s="6">
-        <v>14.630757880617036</v>
-      </c>
-    </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>2009</v>
-      </c>
-      <c r="B60">
-        <v>-18.100000000000001</v>
-      </c>
-      <c r="C60">
-        <v>-14.1</v>
-      </c>
-      <c r="D60">
-        <v>-5.5</v>
-      </c>
-      <c r="E60">
-        <v>6.6</v>
-      </c>
-      <c r="F60">
-        <v>10.7</v>
-      </c>
-      <c r="G60">
-        <v>12.4</v>
-      </c>
-      <c r="H60">
-        <v>16.3</v>
-      </c>
-      <c r="I60">
-        <v>13.6</v>
-      </c>
-      <c r="J60">
-        <v>8.6</v>
-      </c>
-      <c r="K60">
-        <v>2.6</v>
-      </c>
-      <c r="L60">
-        <v>-12.7</v>
-      </c>
-      <c r="M60">
-        <v>-18.3</v>
-      </c>
-      <c r="N60">
-        <f t="shared" si="0"/>
-        <v>13.133333333333335</v>
-      </c>
-      <c r="O60">
-        <f t="shared" si="2"/>
-        <v>0.98624636709143754</v>
-      </c>
-      <c r="P60">
-        <f t="shared" si="1"/>
-        <v>12.147086966241897</v>
-      </c>
-      <c r="R60" s="6">
-        <v>-20.936203890006709</v>
-      </c>
-      <c r="S60" s="6">
-        <v>-17.41992622401073</v>
-      </c>
-      <c r="T60" s="6">
-        <v>-9.2888665325285054</v>
-      </c>
-      <c r="U60" s="6">
-        <v>4.0409590878604966</v>
-      </c>
-      <c r="V60" s="6">
-        <v>9.9959087860496307</v>
-      </c>
-      <c r="W60" s="6">
-        <v>11.339973172367539</v>
-      </c>
-      <c r="X60" s="6">
-        <v>15.105378940308519</v>
-      </c>
-      <c r="Y60" s="6">
-        <v>12.055472837022133</v>
-      </c>
-      <c r="Z60" s="6">
-        <v>8.5863849765258209</v>
-      </c>
-      <c r="AA60" s="6">
-        <v>1.6257478202548625</v>
-      </c>
-      <c r="AB60" s="6">
-        <v>-14.613883299798793</v>
-      </c>
-      <c r="AC60" s="6">
-        <v>-20.408578135479544</v>
-      </c>
-      <c r="AD60" s="6">
-        <v>12.147086966241897</v>
-      </c>
-    </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>2010</v>
-      </c>
-      <c r="B61">
-        <v>-23.6</v>
-      </c>
-      <c r="C61">
-        <v>-21.7</v>
-      </c>
-      <c r="D61">
-        <v>-9.1999999999999993</v>
-      </c>
-      <c r="E61">
-        <v>2.4</v>
-      </c>
-      <c r="F61">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="G61">
-        <v>16.2</v>
-      </c>
-      <c r="H61">
-        <v>16.2</v>
-      </c>
-      <c r="I61">
-        <v>14.4</v>
-      </c>
-      <c r="J61">
-        <v>8.9</v>
-      </c>
-      <c r="K61">
-        <v>0.9</v>
-      </c>
-      <c r="L61">
-        <v>-3.2</v>
-      </c>
-      <c r="M61">
-        <v>-15.6</v>
-      </c>
-      <c r="N61">
-        <f t="shared" si="0"/>
-        <v>13.566666666666668</v>
-      </c>
-      <c r="O61">
-        <f t="shared" si="2"/>
-        <v>1.0032506147999107</v>
-      </c>
-      <c r="P61">
-        <f t="shared" si="1"/>
-        <v>12.563416051866758</v>
-      </c>
-      <c r="R61" s="6">
-        <v>-26.48510395707579</v>
-      </c>
-      <c r="S61" s="6">
-        <v>-25.077166331321258</v>
-      </c>
-      <c r="T61" s="6">
-        <v>-13.0541918175721</v>
-      </c>
-      <c r="U61" s="6">
-        <v>-0.20316230717639128</v>
-      </c>
-      <c r="V61" s="6">
-        <v>7.5837692823608318</v>
-      </c>
-      <c r="W61" s="6">
-        <v>15.121696847753185</v>
-      </c>
-      <c r="X61" s="6">
-        <v>14.98478202548625</v>
-      </c>
-      <c r="Y61" s="6">
-        <v>12.828843058350101</v>
-      </c>
-      <c r="Z61" s="6">
-        <v>8.886150234741784</v>
-      </c>
-      <c r="AA61" s="6">
-        <v>-9.1049631120053709E-2</v>
-      </c>
-      <c r="AB61" s="6">
-        <v>-5.1468812877263588</v>
-      </c>
-      <c r="AC61" s="6">
-        <v>-17.744932930918846</v>
-      </c>
-      <c r="AD61" s="6">
-        <v>12.563416051866758</v>
-      </c>
-    </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>2011</v>
-      </c>
-      <c r="B62">
-        <v>-26.6</v>
-      </c>
-      <c r="C62">
-        <v>-13.6</v>
-      </c>
-      <c r="D62">
-        <v>-5.2</v>
-      </c>
-      <c r="E62">
-        <v>7.2</v>
-      </c>
-      <c r="F62">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="G62">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="H62">
-        <v>16.5</v>
-      </c>
-      <c r="I62">
-        <v>15.5</v>
-      </c>
-      <c r="J62">
-        <v>8.9</v>
-      </c>
-      <c r="K62">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="L62">
-        <v>-7.6</v>
-      </c>
-      <c r="M62">
-        <v>-18.399999999999999</v>
-      </c>
-      <c r="N62">
-        <f t="shared" si="0"/>
-        <v>14.533333333333331</v>
-      </c>
-      <c r="O62">
-        <f t="shared" si="2"/>
-        <v>1.0202548625083836</v>
-      </c>
-      <c r="P62">
-        <f t="shared" si="1"/>
-        <v>13.513078470824947</v>
-      </c>
-      <c r="R62" s="6">
-        <v>-29.53400402414487</v>
-      </c>
-      <c r="S62" s="6">
-        <v>-17.034406438631791</v>
-      </c>
-      <c r="T62" s="6">
-        <v>-9.1195171026156956</v>
-      </c>
-      <c r="U62" s="6">
-        <v>4.5527162977867208</v>
-      </c>
-      <c r="V62" s="6">
-        <v>9.4716297786720318</v>
-      </c>
-      <c r="W62" s="6">
-        <v>15.803420523138833</v>
-      </c>
-      <c r="X62" s="6">
-        <v>15.264185110663984</v>
-      </c>
-      <c r="Y62" s="6">
-        <v>13.902213279678069</v>
-      </c>
-      <c r="Z62" s="6">
-        <v>8.8859154929577464</v>
-      </c>
-      <c r="AA62" s="6">
-        <v>1.1921529175050303</v>
-      </c>
-      <c r="AB62" s="6">
-        <v>-9.5798792756539228</v>
-      </c>
-      <c r="AC62" s="6">
-        <v>-20.581287726358148</v>
-      </c>
-      <c r="AD62" s="6">
-        <v>13.513078470824947</v>
-      </c>
-    </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>2012</v>
-      </c>
-      <c r="B63">
-        <v>-24.2</v>
-      </c>
-      <c r="C63">
-        <v>-21</v>
-      </c>
-      <c r="D63">
-        <v>-6.3</v>
-      </c>
-      <c r="E63">
-        <v>7.1</v>
-      </c>
-      <c r="F63">
-        <v>10.9</v>
-      </c>
-      <c r="G63">
-        <v>18.8</v>
-      </c>
-      <c r="H63">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="I63">
-        <v>15.1</v>
-      </c>
-      <c r="J63">
-        <v>9.9</v>
-      </c>
-      <c r="K63">
-        <v>1.9</v>
-      </c>
-      <c r="L63">
-        <v>-7.8</v>
-      </c>
-      <c r="M63">
-        <v>-23.3</v>
-      </c>
-      <c r="N63">
-        <f t="shared" si="0"/>
-        <v>16.2</v>
-      </c>
-      <c r="O63">
-        <f t="shared" si="2"/>
-        <v>1.0372591102168567</v>
-      </c>
-      <c r="P63">
-        <f t="shared" si="1"/>
-        <v>15.162740889783143</v>
-      </c>
-      <c r="R63" s="6">
-        <v>-27.182904091213949</v>
-      </c>
-      <c r="S63" s="6">
-        <v>-24.49164654594232</v>
-      </c>
-      <c r="T63" s="6">
-        <v>-10.284842387659289</v>
-      </c>
-      <c r="U63" s="6">
-        <v>4.408594902749833</v>
-      </c>
-      <c r="V63" s="6">
-        <v>10.159490274983233</v>
-      </c>
-      <c r="W63" s="6">
-        <v>17.685144198524483</v>
-      </c>
-      <c r="X63" s="6">
-        <v>17.643588195841716</v>
-      </c>
-      <c r="Y63" s="6">
-        <v>13.475583501006037</v>
-      </c>
-      <c r="Z63" s="6">
-        <v>9.8856807511737088</v>
-      </c>
-      <c r="AA63" s="6">
-        <v>0.87535546613011372</v>
-      </c>
-      <c r="AB63" s="6">
-        <v>-9.8128772635814894</v>
-      </c>
-      <c r="AC63" s="6">
-        <v>-25.517642521797452</v>
-      </c>
-      <c r="AD63" s="6">
-        <v>15.162740889783143</v>
-      </c>
-    </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>2013</v>
-      </c>
-      <c r="B64">
-        <v>-15.5</v>
-      </c>
-      <c r="C64">
-        <v>-15.6</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64">
-        <v>6.5</v>
-      </c>
-      <c r="F64">
-        <v>8.5</v>
-      </c>
-      <c r="G64">
-        <v>14</v>
-      </c>
-      <c r="H64">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="I64">
-        <v>15.7</v>
-      </c>
-      <c r="J64">
-        <v>8.1</v>
-      </c>
-      <c r="K64">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="L64">
-        <v>-5.0999999999999996</v>
-      </c>
-      <c r="M64">
-        <v>-11.5</v>
-      </c>
-      <c r="N64">
-        <f t="shared" si="0"/>
-        <v>13.133333333333333</v>
-      </c>
-      <c r="O64">
-        <f t="shared" si="2"/>
-        <v>1.0542633579253298</v>
-      </c>
-      <c r="P64">
-        <f t="shared" si="1"/>
-        <v>12.079069975408004</v>
-      </c>
-      <c r="R64" s="6">
-        <v>-18.53180415828303</v>
-      </c>
-      <c r="S64" s="6">
-        <v>-19.148886653252852</v>
-      </c>
-      <c r="T64" s="6">
-        <v>-3.0501676727028846</v>
-      </c>
-      <c r="U64" s="6">
-        <v>3.7644735077129448</v>
-      </c>
-      <c r="V64" s="6">
-        <v>7.7473507712944336</v>
-      </c>
-      <c r="W64" s="6">
-        <v>12.866867873910127</v>
-      </c>
-      <c r="X64" s="6">
-        <v>15.622991281019448</v>
-      </c>
-      <c r="Y64" s="6">
-        <v>14.048953722334003</v>
-      </c>
-      <c r="Z64" s="6">
-        <v>8.0854460093896705</v>
-      </c>
-      <c r="AA64" s="6">
-        <v>1.2585580147551976</v>
-      </c>
-      <c r="AB64" s="6">
-        <v>-7.1458752515090538</v>
-      </c>
-      <c r="AC64" s="6">
-        <v>-13.753997317236754</v>
-      </c>
-      <c r="AD64" s="6">
-        <v>12.079069975408004</v>
-      </c>
-    </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>2014</v>
-      </c>
-      <c r="B65">
-        <v>-15</v>
-      </c>
-      <c r="C65">
-        <v>-18.2</v>
-      </c>
-      <c r="D65">
-        <v>-2.5</v>
-      </c>
-      <c r="E65">
-        <v>5.8</v>
-      </c>
-      <c r="F65">
-        <v>9.9</v>
-      </c>
-      <c r="G65">
-        <v>15.3</v>
-      </c>
-      <c r="H65">
-        <v>16.7</v>
-      </c>
-      <c r="I65">
-        <v>15.7</v>
-      </c>
-      <c r="J65">
-        <v>7.9</v>
-      </c>
-      <c r="K65">
-        <v>3.3</v>
-      </c>
-      <c r="L65">
-        <v>-6.2</v>
-      </c>
-      <c r="M65">
-        <v>-18.3</v>
-      </c>
-      <c r="N65">
-        <f t="shared" si="0"/>
-        <v>13.966666666666669</v>
-      </c>
-      <c r="O65">
-        <f t="shared" si="2"/>
-        <v>1.0712676056338029</v>
-      </c>
-      <c r="P65">
-        <f t="shared" si="1"/>
-        <v>12.895399061032865</v>
-      </c>
-      <c r="R65" s="6">
-        <v>-18.080704225352111</v>
-      </c>
-      <c r="S65" s="6">
-        <v>-21.80612676056338</v>
-      </c>
-      <c r="T65" s="6">
-        <v>-6.6154929577464801</v>
-      </c>
-      <c r="U65" s="6">
-        <v>3.0203521126760569</v>
-      </c>
-      <c r="V65" s="6">
-        <v>9.1352112676056336</v>
-      </c>
-      <c r="W65" s="6">
-        <v>14.148591549295777</v>
-      </c>
-      <c r="X65" s="6">
-        <v>15.402394366197182</v>
-      </c>
-      <c r="Y65" s="6">
-        <v>14.022323943661972</v>
-      </c>
-      <c r="Z65" s="6">
-        <v>7.8852112676056345</v>
-      </c>
-      <c r="AA65" s="6">
-        <v>2.2417605633802813</v>
-      </c>
-      <c r="AB65" s="6">
-        <v>-8.2788732394366207</v>
-      </c>
-      <c r="AC65" s="6">
-        <v>-20.590352112676058</v>
-      </c>
-      <c r="AD65" s="6">
-        <v>12.895399061032865</v>
-      </c>
-    </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>2015</v>
-      </c>
-      <c r="B66">
-        <v>-14.5</v>
-      </c>
-      <c r="C66">
-        <v>-13.3</v>
-      </c>
-      <c r="D66">
-        <v>-3.7</v>
-      </c>
-      <c r="E66">
-        <v>6.3</v>
-      </c>
-      <c r="F66">
-        <v>11.5</v>
-      </c>
-      <c r="G66">
-        <v>17.2</v>
-      </c>
-      <c r="H66">
-        <v>18.2</v>
-      </c>
-      <c r="I66">
-        <v>15.5</v>
-      </c>
-      <c r="J66">
-        <v>7.2</v>
-      </c>
-      <c r="K66">
-        <v>3</v>
-      </c>
-      <c r="L66">
-        <v>-8.6</v>
-      </c>
-      <c r="M66">
-        <v>-10.8</v>
-      </c>
-      <c r="N66">
-        <f t="shared" si="0"/>
-        <v>15.633333333333333</v>
-      </c>
-      <c r="O66">
-        <f t="shared" si="2"/>
-        <v>1.0882718533422759</v>
-      </c>
-      <c r="P66">
-        <f t="shared" si="1"/>
-        <v>14.545061479991057</v>
-      </c>
-      <c r="R66" s="6">
-        <v>-17.629604292421192</v>
-      </c>
-      <c r="S66" s="6">
-        <v>-16.963366867873912</v>
-      </c>
-      <c r="T66" s="6">
-        <v>-7.8808182427900748</v>
-      </c>
-      <c r="U66" s="6">
-        <v>3.4762307176391687</v>
-      </c>
-      <c r="V66" s="6">
-        <v>10.723071763916835</v>
-      </c>
-      <c r="W66" s="6">
-        <v>16.030315224681424</v>
-      </c>
-      <c r="X66" s="6">
-        <v>16.881797451374915</v>
-      </c>
-      <c r="Y66" s="6">
-        <v>13.795694164989939</v>
-      </c>
-      <c r="Z66" s="6">
-        <v>7.1849765258215967</v>
-      </c>
-      <c r="AA66" s="6">
-        <v>1.9249631120053654</v>
-      </c>
-      <c r="AB66" s="6">
-        <v>-10.711871227364185</v>
-      </c>
-      <c r="AC66" s="6">
-        <v>-13.126706908115359</v>
-      </c>
-      <c r="AD66" s="6">
-        <v>14.545061479991057</v>
-      </c>
-    </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>2016</v>
-      </c>
-      <c r="B67">
-        <v>-25.3</v>
-      </c>
-      <c r="C67">
-        <v>-14.4</v>
-      </c>
-      <c r="D67">
-        <v>-3.2</v>
-      </c>
-      <c r="E67">
-        <v>6.5</v>
-      </c>
-      <c r="F67">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="G67">
-        <v>16.5</v>
-      </c>
-      <c r="H67">
-        <v>18.3</v>
-      </c>
-      <c r="I67">
-        <v>14.3</v>
-      </c>
-      <c r="J67">
-        <v>10.7</v>
-      </c>
-      <c r="K67">
-        <v>-0.5</v>
-      </c>
-      <c r="L67">
-        <v>-14.8</v>
-      </c>
-      <c r="M67">
-        <v>-12.9</v>
-      </c>
-      <c r="N67">
-        <f t="shared" ref="N67:N72" si="3">AVERAGE(F67:H67)</f>
-        <v>14.700000000000001</v>
-      </c>
-      <c r="O67">
-        <f t="shared" si="2"/>
-        <v>1.105276101050749</v>
-      </c>
-      <c r="P67">
-        <f t="shared" ref="P67:P72" si="4">N67-O67</f>
-        <v>13.594723898949251</v>
-      </c>
-      <c r="R67" s="6">
-        <v>-28.478504359490277</v>
-      </c>
-      <c r="S67" s="6">
-        <v>-18.12060697518444</v>
-      </c>
-      <c r="T67" s="6">
-        <v>-7.4461435278336694</v>
-      </c>
-      <c r="U67" s="6">
-        <v>3.6321093226022807</v>
-      </c>
-      <c r="V67" s="6">
-        <v>8.5109322602280351</v>
-      </c>
-      <c r="W67" s="6">
-        <v>15.312038900067069</v>
-      </c>
-      <c r="X67" s="6">
-        <v>16.961200536552649</v>
-      </c>
-      <c r="Y67" s="6">
-        <v>12.569064386317908</v>
-      </c>
-      <c r="Z67" s="6">
-        <v>10.684741784037557</v>
-      </c>
-      <c r="AA67" s="6">
-        <v>-1.5918343393695507</v>
-      </c>
-      <c r="AB67" s="6">
-        <v>-16.944869215291753</v>
-      </c>
-      <c r="AC67" s="6">
-        <v>-15.263061703554662</v>
-      </c>
-      <c r="AD67" s="6">
-        <v>13.594723898949251</v>
-      </c>
-    </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>2017</v>
-      </c>
-      <c r="B68">
-        <v>-15.2</v>
-      </c>
-      <c r="C68">
-        <v>-15.1</v>
-      </c>
-      <c r="D68">
-        <v>-5.8</v>
-      </c>
-      <c r="E68">
-        <v>6.3</v>
-      </c>
-      <c r="F68">
-        <v>12</v>
-      </c>
-      <c r="G68">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="H68">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="I68">
-        <v>15.9</v>
-      </c>
-      <c r="J68">
-        <v>8.1</v>
-      </c>
-      <c r="K68">
-        <v>0.7</v>
-      </c>
-      <c r="L68">
-        <v>-9.3000000000000007</v>
-      </c>
-      <c r="M68">
-        <v>-19.899999999999999</v>
-      </c>
-      <c r="N68">
-        <f t="shared" si="3"/>
-        <v>16.099999999999998</v>
-      </c>
-      <c r="O68">
-        <f t="shared" ref="O68:O72" si="5">$AH$1*(A68-$A$2)</f>
-        <v>1.1222803487592221</v>
-      </c>
-      <c r="P68">
-        <f t="shared" si="4"/>
-        <v>14.977719651240776</v>
-      </c>
-      <c r="R68" s="6">
-        <v>-18.427404426559356</v>
-      </c>
-      <c r="S68" s="6">
-        <v>-18.87784708249497</v>
-      </c>
-      <c r="T68" s="6">
-        <v>-10.111468812877265</v>
-      </c>
-      <c r="U68" s="6">
-        <v>3.3879879275653928</v>
-      </c>
-      <c r="V68" s="6">
-        <v>11.198792756539236</v>
-      </c>
-      <c r="W68" s="6">
-        <v>17.193762575452716</v>
-      </c>
-      <c r="X68" s="6">
-        <v>16.54060362173038</v>
-      </c>
-      <c r="Y68" s="6">
-        <v>14.142434607645876</v>
-      </c>
-      <c r="Z68" s="6">
-        <v>8.0845070422535201</v>
-      </c>
-      <c r="AA68" s="6">
-        <v>-0.40863179074446698</v>
-      </c>
-      <c r="AB68" s="6">
-        <v>-11.477867203219317</v>
-      </c>
-      <c r="AC68" s="6">
-        <v>-22.299416498993963</v>
-      </c>
-      <c r="AD68" s="6">
-        <v>14.977719651240776</v>
-      </c>
-    </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>2018</v>
-      </c>
-      <c r="B69">
-        <v>-25.9</v>
-      </c>
-      <c r="C69">
-        <v>-16.399999999999999</v>
-      </c>
-      <c r="D69">
-        <v>-2.1</v>
-      </c>
-      <c r="E69">
-        <v>4.7</v>
-      </c>
-      <c r="F69">
-        <v>8.9</v>
-      </c>
-      <c r="G69">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="H69">
-        <v>17</v>
-      </c>
-      <c r="I69">
-        <v>15.8</v>
-      </c>
-      <c r="J69">
-        <v>8</v>
-      </c>
-      <c r="K69">
-        <v>2.4</v>
-      </c>
-      <c r="L69">
-        <v>-11.7</v>
-      </c>
-      <c r="M69">
-        <v>-24.5</v>
-      </c>
-      <c r="N69">
-        <f t="shared" si="3"/>
-        <v>14.433333333333332</v>
-      </c>
-      <c r="O69">
-        <f t="shared" si="5"/>
-        <v>1.1392845964676952</v>
-      </c>
-      <c r="P69">
-        <f t="shared" si="4"/>
-        <v>13.294048736865637</v>
-      </c>
-      <c r="R69" s="6">
-        <v>-29.176304493628436</v>
-      </c>
-      <c r="S69" s="6">
-        <v>-20.235087189805498</v>
-      </c>
-      <c r="T69" s="6">
-        <v>-6.4767940979208589</v>
-      </c>
-      <c r="U69" s="6">
-        <v>1.743866532528505</v>
-      </c>
-      <c r="V69" s="6">
-        <v>8.0866532528504358</v>
-      </c>
-      <c r="W69" s="6">
-        <v>16.175486250838361</v>
-      </c>
-      <c r="X69" s="6">
-        <v>15.620006706908116</v>
-      </c>
-      <c r="Y69" s="6">
-        <v>14.015804828973843</v>
-      </c>
-      <c r="Z69" s="6">
-        <v>7.9842723004694838</v>
-      </c>
-      <c r="AA69" s="6">
-        <v>1.2745707578806169</v>
-      </c>
-      <c r="AB69" s="6">
-        <v>-13.910865191146881</v>
-      </c>
-      <c r="AC69" s="6">
-        <v>-26.935771294433266</v>
-      </c>
-      <c r="AD69" s="6">
-        <v>13.294048736865637</v>
-      </c>
-    </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>2019</v>
-      </c>
-      <c r="B70">
-        <v>-22.3</v>
-      </c>
-      <c r="C70">
-        <v>-19.2</v>
-      </c>
-      <c r="D70">
-        <v>-2.2999999999999998</v>
-      </c>
-      <c r="E70">
-        <v>5.8</v>
-      </c>
-      <c r="F70">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="G70">
-        <v>15.3</v>
-      </c>
-      <c r="H70">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="I70">
-        <v>16.2</v>
-      </c>
-      <c r="J70">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="K70">
-        <v>2.8</v>
-      </c>
-      <c r="L70">
-        <v>-9.5</v>
-      </c>
-      <c r="M70">
-        <v>-14.3</v>
-      </c>
-      <c r="N70">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="O70">
-        <f t="shared" si="5"/>
-        <v>1.1562888441761683</v>
-      </c>
-      <c r="P70">
-        <f t="shared" si="4"/>
-        <v>12.843711155823831</v>
-      </c>
-      <c r="R70" s="6">
-        <v>-25.625204560697519</v>
-      </c>
-      <c r="S70" s="6">
-        <v>-23.092327297116029</v>
-      </c>
-      <c r="T70" s="6">
-        <v>-6.7421193829644546</v>
-      </c>
-      <c r="U70" s="6">
-        <v>2.7997451374916169</v>
-      </c>
-      <c r="V70" s="6">
-        <v>8.4745137491616376</v>
-      </c>
-      <c r="W70" s="6">
-        <v>14.057209926224012</v>
-      </c>
-      <c r="X70" s="6">
-        <v>15.999409792085848</v>
-      </c>
-      <c r="Y70" s="6">
-        <v>14.389175050301811</v>
-      </c>
-      <c r="Z70" s="6">
-        <v>10.184037558685445</v>
-      </c>
-      <c r="AA70" s="6">
-        <v>1.6577733065057005</v>
-      </c>
-      <c r="AB70" s="6">
-        <v>-11.743863179074447</v>
-      </c>
-      <c r="AC70" s="6">
-        <v>-16.772126089872572</v>
-      </c>
-      <c r="AD70" s="6">
-        <v>12.843711155823831</v>
-      </c>
-    </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>2020</v>
-      </c>
-      <c r="B71">
-        <v>-15.1</v>
-      </c>
-      <c r="C71">
-        <v>-11.3</v>
-      </c>
-      <c r="D71">
-        <v>-4.2</v>
-      </c>
-      <c r="E71">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="F71">
-        <v>13.8</v>
-      </c>
-      <c r="G71">
-        <v>14.4</v>
-      </c>
-      <c r="H71">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="I71">
-        <v>15.6</v>
-      </c>
-      <c r="J71">
-        <v>9.1</v>
-      </c>
-      <c r="K71">
-        <v>1.6</v>
-      </c>
-      <c r="L71">
-        <v>-8.1999999999999993</v>
-      </c>
-      <c r="M71">
-        <v>-17.899999999999999</v>
-      </c>
-      <c r="N71">
-        <f t="shared" si="3"/>
-        <v>15.366666666666667</v>
-      </c>
-      <c r="O71">
-        <f t="shared" si="5"/>
-        <v>1.1732930918846411</v>
-      </c>
-      <c r="P71">
-        <f t="shared" si="4"/>
-        <v>14.193373574782026</v>
-      </c>
-      <c r="R71" s="6">
-        <v>-18.4741046277666</v>
-      </c>
-      <c r="S71" s="6">
-        <v>-15.249567404426561</v>
-      </c>
-      <c r="T71" s="6">
-        <v>-8.7074446680080495</v>
-      </c>
-      <c r="U71" s="6">
-        <v>6.1556237424547282</v>
-      </c>
-      <c r="V71" s="6">
-        <v>12.962374245472837</v>
-      </c>
-      <c r="W71" s="6">
-        <v>13.13893360160966</v>
-      </c>
-      <c r="X71" s="6">
-        <v>16.478812877263579</v>
-      </c>
-      <c r="Y71" s="6">
-        <v>13.762545271629779</v>
-      </c>
-      <c r="Z71" s="6">
-        <v>9.0838028169014091</v>
-      </c>
-      <c r="AA71" s="6">
-        <v>0.44097585513078474</v>
-      </c>
-      <c r="AB71" s="6">
-        <v>-10.476861167002012</v>
-      </c>
-      <c r="AC71" s="6">
-        <v>-20.408480885311871</v>
-      </c>
-      <c r="AD71" s="6">
-        <v>14.193373574782026</v>
-      </c>
-    </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>2021</v>
-      </c>
-      <c r="B72">
-        <v>-18.8</v>
-      </c>
-      <c r="C72">
-        <v>-9.9</v>
-      </c>
-      <c r="D72">
-        <v>-3.3</v>
-      </c>
-      <c r="E72">
-        <v>3.7</v>
-      </c>
-      <c r="F72">
-        <v>11.4</v>
-      </c>
-      <c r="G72">
-        <v>14.4</v>
-      </c>
-      <c r="H72">
-        <v>18.3</v>
-      </c>
-      <c r="I72">
-        <v>15.5</v>
-      </c>
-      <c r="J72">
-        <v>8.9</v>
-      </c>
-      <c r="K72">
-        <v>1.3</v>
-      </c>
-      <c r="L72">
-        <v>-7</v>
-      </c>
-      <c r="M72">
-        <v>-15.7</v>
-      </c>
-      <c r="N72">
-        <f t="shared" si="3"/>
-        <v>14.700000000000001</v>
-      </c>
-      <c r="O72">
-        <f t="shared" si="5"/>
-        <v>1.1902973395931142</v>
-      </c>
-      <c r="P72">
-        <f t="shared" si="4"/>
-        <v>13.509702660406887</v>
-      </c>
-      <c r="R72" s="6">
-        <v>-22.22300469483568</v>
-      </c>
-      <c r="S72" s="6">
-        <v>-13.906807511737089</v>
-      </c>
-      <c r="T72" s="6">
-        <v>-7.8727699530516437</v>
-      </c>
-      <c r="U72" s="6">
-        <v>0.61150234741784093</v>
-      </c>
-      <c r="V72" s="6">
-        <v>10.550234741784038</v>
-      </c>
-      <c r="W72" s="6">
-        <v>13.120657276995306</v>
-      </c>
-      <c r="X72" s="6">
-        <v>16.858215962441317</v>
-      </c>
-      <c r="Y72" s="6">
-        <v>13.635915492957746</v>
-      </c>
-      <c r="Z72" s="6">
-        <v>8.8835680751173722</v>
-      </c>
-      <c r="AA72" s="6">
-        <v>0.12417840375586842</v>
-      </c>
-      <c r="AB72" s="6">
-        <v>-9.3098591549295779</v>
-      </c>
-      <c r="AC72" s="6">
-        <v>-18.244835680751173</v>
-      </c>
-      <c r="AD72" s="6">
-        <v>13.509702660406887</v>
       </c>
     </row>
   </sheetData>
@@ -7288,16 +5909,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH72"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7392,7 +6013,7 @@
         <v>-0.25103957075788058</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1951</v>
       </c>
@@ -7488,7 +6109,7 @@
         <v>-4.4141926842466046E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1952</v>
       </c>
@@ -7588,7 +6209,7 @@
         <v>3.5270682603143021E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1953</v>
       </c>
@@ -7688,7 +6309,7 @@
         <v>6.1020511997221812E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1954</v>
       </c>
@@ -7788,7 +6409,7 @@
         <v>3.8316610638728203E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1955</v>
       </c>
@@ -7888,7 +6509,7 @@
         <v>0.19355320600901463</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1956</v>
       </c>
@@ -7988,7 +6609,7 @@
         <v>-4.3360072106467563E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1957</v>
       </c>
@@ -8088,7 +6709,7 @@
         <v>-1.4320850397148928E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1958</v>
       </c>
@@ -8188,7 +6809,7 @@
         <v>-0.17329892403630415</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1959</v>
       </c>
@@ -8288,7 +6909,7 @@
         <v>-6.5755698951246319E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1960</v>
       </c>
@@ -8388,7 +7009,7 @@
         <v>7.7410509075678882E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1961</v>
       </c>
@@ -8488,7 +7109,7 @@
         <v>0.12939737294340312</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1962</v>
       </c>
@@ -8588,7 +7209,7 @@
         <v>2.5492119085859348E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1963</v>
       </c>
@@ -8688,7 +7309,7 @@
         <v>-0.25103957075788058</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1964</v>
       </c>
@@ -8781,7 +7402,7 @@
       </c>
       <c r="AE15" s="6"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1965</v>
       </c>
@@ -8874,7 +7495,7 @@
       </c>
       <c r="AE16" s="6"/>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1966</v>
       </c>
@@ -8967,7 +7588,7 @@
       </c>
       <c r="AE17" s="6"/>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1967</v>
       </c>
@@ -9060,7 +7681,7 @@
       </c>
       <c r="AE18" s="6"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1968</v>
       </c>
@@ -9153,7 +7774,7 @@
       </c>
       <c r="AE19" s="6"/>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1969</v>
       </c>
@@ -9246,7 +7867,7 @@
       </c>
       <c r="AE20" s="6"/>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1970</v>
       </c>
@@ -9339,7 +7960,7 @@
       </c>
       <c r="AE21" s="6"/>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1971</v>
       </c>
@@ -9432,7 +8053,7 @@
       </c>
       <c r="AE22" s="6"/>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1972</v>
       </c>
@@ -9525,7 +8146,7 @@
       </c>
       <c r="AE23" s="6"/>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1973</v>
       </c>
@@ -9618,7 +8239,7 @@
       </c>
       <c r="AE24" s="6"/>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1974</v>
       </c>
@@ -9711,7 +8332,7 @@
       </c>
       <c r="AE25" s="6"/>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1975</v>
       </c>
@@ -9804,7 +8425,7 @@
       </c>
       <c r="AE26" s="6"/>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1976</v>
       </c>
@@ -9897,7 +8518,7 @@
       </c>
       <c r="AE27" s="6"/>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1977</v>
       </c>
@@ -9990,7 +8611,7 @@
       </c>
       <c r="AE28" s="6"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1978</v>
       </c>
@@ -10083,7 +8704,7 @@
       </c>
       <c r="AE29" s="6"/>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1979</v>
       </c>
@@ -10176,7 +8797,7 @@
       </c>
       <c r="AE30" s="6"/>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1980</v>
       </c>
@@ -10269,7 +8890,7 @@
       </c>
       <c r="AE31" s="6"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1981</v>
       </c>
@@ -10362,7 +8983,7 @@
       </c>
       <c r="AE32" s="6"/>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1982</v>
       </c>
@@ -10455,7 +9076,7 @@
       </c>
       <c r="AE33" s="6"/>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1983</v>
       </c>
@@ -10548,7 +9169,7 @@
       </c>
       <c r="AE34" s="6"/>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1984</v>
       </c>
@@ -10641,7 +9262,7 @@
       </c>
       <c r="AE35" s="6"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1985</v>
       </c>
@@ -10734,7 +9355,7 @@
       </c>
       <c r="AE36" s="6"/>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1986</v>
       </c>
@@ -10827,7 +9448,7 @@
       </c>
       <c r="AE37" s="6"/>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1987</v>
       </c>
@@ -10920,7 +9541,7 @@
       </c>
       <c r="AE38" s="6"/>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1988</v>
       </c>
@@ -11013,7 +9634,7 @@
       </c>
       <c r="AE39" s="6"/>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1989</v>
       </c>
@@ -11106,7 +9727,7 @@
       </c>
       <c r="AE40" s="6"/>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1990</v>
       </c>
@@ -11199,7 +9820,7 @@
       </c>
       <c r="AE41" s="6"/>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1991</v>
       </c>
@@ -11292,7 +9913,7 @@
       </c>
       <c r="AE42" s="6"/>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1992</v>
       </c>
@@ -11385,7 +10006,7 @@
       </c>
       <c r="AE43" s="6"/>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1993</v>
       </c>
@@ -11478,7 +10099,7 @@
       </c>
       <c r="AE44" s="6"/>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1994</v>
       </c>
@@ -11571,7 +10192,7 @@
       </c>
       <c r="AE45" s="6"/>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1995</v>
       </c>
@@ -11664,7 +10285,7 @@
       </c>
       <c r="AE46" s="6"/>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1996</v>
       </c>
@@ -11757,7 +10378,7 @@
       </c>
       <c r="AE47" s="6"/>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1997</v>
       </c>
@@ -11840,7 +10461,7 @@
       </c>
       <c r="AE48" s="6"/>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1998</v>
       </c>
@@ -11931,7 +10552,7 @@
       </c>
       <c r="AE49" s="6"/>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1999</v>
       </c>
@@ -12024,7 +10645,7 @@
       </c>
       <c r="AE50" s="6"/>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2000</v>
       </c>
@@ -12117,7 +10738,7 @@
       </c>
       <c r="AE51" s="6"/>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2001</v>
       </c>
@@ -12210,7 +10831,7 @@
       </c>
       <c r="AE52" s="6"/>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2002</v>
       </c>
@@ -12303,7 +10924,7 @@
       </c>
       <c r="AE53" s="6"/>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2003</v>
       </c>
@@ -12396,7 +11017,7 @@
       </c>
       <c r="AE54" s="6"/>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2004</v>
       </c>
@@ -12475,7 +11096,7 @@
       </c>
       <c r="AE55" s="6"/>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2005</v>
       </c>
@@ -12548,7 +11169,7 @@
       </c>
       <c r="AE56" s="6"/>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2006</v>
       </c>
@@ -12641,7 +11262,7 @@
       </c>
       <c r="AE57" s="6"/>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2007</v>
       </c>
@@ -12734,7 +11355,7 @@
       </c>
       <c r="AE58" s="6"/>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2008</v>
       </c>
@@ -12827,7 +11448,7 @@
       </c>
       <c r="AE59" s="6"/>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2009</v>
       </c>
@@ -12920,7 +11541,7 @@
       </c>
       <c r="AE60" s="6"/>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2010</v>
       </c>
@@ -13013,7 +11634,7 @@
       </c>
       <c r="AE61" s="6"/>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2011</v>
       </c>
@@ -13106,7 +11727,7 @@
       </c>
       <c r="AE62" s="6"/>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2012</v>
       </c>
@@ -13199,7 +11820,7 @@
       </c>
       <c r="AE63" s="6"/>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2013</v>
       </c>
@@ -13292,7 +11913,7 @@
       </c>
       <c r="AE64" s="6"/>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2014</v>
       </c>
@@ -13385,7 +12006,7 @@
       </c>
       <c r="AE65" s="6"/>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2015</v>
       </c>
@@ -13466,7 +12087,7 @@
       </c>
       <c r="AE66" s="6"/>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2016</v>
       </c>
@@ -13559,7 +12180,7 @@
       </c>
       <c r="AE67" s="6"/>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2017</v>
       </c>
@@ -13652,7 +12273,7 @@
       </c>
       <c r="AE68" s="6"/>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2018</v>
       </c>
@@ -13745,7 +12366,7 @@
       </c>
       <c r="AE69" s="6"/>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2019</v>
       </c>
@@ -13838,7 +12459,7 @@
       </c>
       <c r="AE70" s="6"/>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2020</v>
       </c>
@@ -13931,7 +12552,7 @@
       </c>
       <c r="AE71" s="6"/>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2021</v>
       </c>
